--- a/inst/rmarkdown/templates/academic-cv/skeleton/cv_data.xlsx
+++ b/inst/rmarkdown/templates/academic-cv/skeleton/cv_data.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="554">
   <si>
     <t xml:space="preserve">type</t>
   </si>
@@ -24,9 +24,6 @@
     <t xml:space="preserve">date</t>
   </si>
   <si>
-    <t xml:space="preserve">year_end</t>
-  </si>
-  <si>
     <t xml:space="preserve">date_end</t>
   </si>
   <si>
@@ -90,859 +87,856 @@
     <t xml:space="preserve">2020 --- 2021</t>
   </si>
   <si>
+    <t xml:space="preserve">2021-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visiting Research Fellow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxford Centre for Hindu Studies, [Śākta traditions project](http://saktatraditions.org)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">education</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016 --- 2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021-05-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPhil in Computer Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Oxford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supervisor: [Sir Nigel Shadbolt](https://www.jesus.ox.ac.uk/people/professor-sir-nigel-shadbolt-freng-frs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thesis: Examining the effectiveness of design patterns for digital self-control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012 --- 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-10-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MSc in Cognitive and Evolutionary Anthropology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supervisor: [Oliver Curry](https://www.oliverscottcurry.com)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thesis: Fundamental motivations and risk-taking</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011 --- 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MA in the Study of Religion &amp; Psychology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aarhus University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supervisor: [Uffe Schjødt](https://pure.au.dk/portal/en/persons/uffe-schjoedt(c2b0d5e1-b9e5-4ff1-9866-7009bc63827e).html)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thesis: Religion as a cultural tool for cognitive control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2007 --- 2011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2011-02-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BA in the Study of Religion &amp; Psychology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supervisors: [Jesper Sørensen](https://pure.au.dk/portal/da/persons/jesper-soerensen(6eb687a7-1af7-48c0-bad1-cc9cc0ba3054).html) and [Kristoffer Laigaard Nielbo](https://pure.au.dk/portal/en/persons/kristoffer-laigaard-nielbo(aef8887c-d4e9-4270-9031-1a15553f5590).html)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thesis: Priming effects of religious concepts on moral judgment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">awards</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winner of the 2020 [Oxford Three Minute Thesis competition](https://www.ox.ac.uk/students/three-minute-thesis-competition)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mathematical, Physical and Life Sciences Division, University of Oxford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conducted online due to the corona pandemic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Commendation Certificate for the Reducing Digital Distraction Workshop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[MPLS Impact Awards](https://www.mpls.ox.ac.uk/news/mpls-impact-awards-2020-winners-announced-at-winter-reception), University of Oxford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Talk Award</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019 Oxford Computer Science Conference, University of Oxford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Paper Honorable Mention Award for "Self-Control in Cyberspace..."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHI’19: ACM Conference on Human Factors in Computing Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best Paper Award for "Third party tracking..."</t>
+  </si>
+  <si>
+    <t xml:space="preserve">WebSci'18: ACM Conference on Web Science, Amsterdam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">€500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOMUS Prize for Outstanding Research Communication</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linacre College, University of Oxford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minor_grants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junior Research Fellow Grant, [Lucy Halsall Fund](https://www.linacre.ox.ac.uk/lucy-halsall-fund-and-jrf-grant-application-form)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">US research travel: visit to [Human Centered Design &amp; Engineering](https://www.hcde.washington.edu), UW, Seattle; participation in [CHI'22](https://chi2022.acm.org), New Orleans, Louisiana</t>
+  </si>
+  <si>
     <t xml:space="preserve">2021</t>
   </si>
   <si>
-    <t xml:space="preserve">2021-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Visiting Research Fellow</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxford Centre for Hindu Studies, [Śākta traditions project](http://saktatraditions.org)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">education</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016 --- 2021</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021-05-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPhil in Computer Science</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Oxford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supervisor: [Sir Nigel Shadbolt](https://www.jesus.ox.ac.uk/people/professor-sir-nigel-shadbolt-freng-frs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thesis: Examining the effectiveness of design patterns for digital self-control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012 --- 2013</t>
+    <t xml:space="preserve">Initial validation of measures for digital self-control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£292</t>
+  </si>
+  <si>
+    <t xml:space="preserve">major_grants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2021 --- 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2023-01-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Carlsberg Foundation Visiting Fellowship at University of Oxford](https://www.carlsbergfondet.dk/da/Forskningsaktiviteter/Bevillingsstatistik/Bevillingsoversigt/CF20_0678_Ulrik-Lyngs)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Understanding Personal Digital Self-Control Struggles and Appropriate Interventions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DKK 700,000 (~£80k)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[van Houten Fund](https://governance.admin.ox.ac.uk/van-houten-fund)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Reducing Digital Distraction (ReDD) Workshop for Oxford University students</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supervisor: Maureen Freed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~£12k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019 --- 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[EPSRC Doctoral Prize](https://epsrc.ukri.org/skills/students/dta/doctoralprize/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supporting End-User Autonomy Over Digital Device Use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supervisor: Nigel Shadbolt. Mentor: Max Van Kleek.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~£28k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Student Research Competition Grant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHI’18: ACM Conference on Human Factors in Computing Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$500</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workshop Travel Grant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Designing for Curiosity, CHI’17: ACM Conference on Human Factors in Computing Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">€400</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CHI’17: ACM Conference on Human Factors in Computing Systems</t>
   </si>
   <si>
     <t xml:space="preserve">2013</t>
   </si>
   <si>
-    <t xml:space="preserve">2013-10-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MSc in Cognitive and Evolutionary Anthropology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supervisor: [Oliver Curry](https://www.oliverscottcurry.com)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thesis: Fundamental motivations and risk-taking</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011 --- 2016</t>
+    <t xml:space="preserve">Lienhard &amp; Bagby Research Grant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institute of Social &amp; Cultural Anthropology, University of Oxford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">£1,000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summer School Scholarship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Helsinki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">~€1000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Undergraduate Travel Grant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DKK 1200</t>
+  </si>
+  <si>
+    <t xml:space="preserve">service</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018 --- 2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2020-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Steering group member</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transparent Statistics in Human-Computer Interaction</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://transparentstatistics.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016 --- present</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reviewer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[ACM Transactions on Computer-Human Interaction (TOCHI)](http://tochi.acm.org/),  [ACM CHI Conference](https://sigchi.org/),  [Computer-Supported Cooperative Work and Social Computing](http://cscw.acm.org/2019/),  [International Journal of Human-Computer Studies](https://www.journals.elsevier.com/international-journal-of-human-computer-studies)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-06-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Main conference organiser and General Chair</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxford Computer Science Conference 2018, Dept. of Computer Science, University of Oxford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017 --- 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">President of the Computer Science Graduate Society (CoGS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept. of Computer Science, University of Oxford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organised and chaired termly CoGS planning meetings, Computer Science representative at termly orienting meetings in the mathematical, physical, engineering and life sciences division (MPLS).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016 --- 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DPhil representative in the Computer Science Graduate Society (CoGS)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Participated in termly meetings, organised numerous social coffee, pizza, and drinks sessions. Reviewed submissions for the annual Oxford Computer Science Conference and chaired multiple sessions at the event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012 --- 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2016-08-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Executive committee member in the [London Evolutionary Research Network](https://londonevolution.org) (LERN)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">London, UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organised regular talks (30+) plus annual conferences (3) on cutting-edge evolutionary research, for early career researchers across universities and departments in southern UK.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2008 --- 2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012-01-01</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chairman of the [Society for the Study of Religion (RvF)](https://studerende.au.dk/studier/fagportaler/arts/religionsvidenskabelig-forening/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept. for the Study of Religion, Aarhus University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Organised and chaired monthly committee meetings; chaired monthly research talks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pop-writing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[How to Adapt Any LaTeX Template for Use With R Markdown in Four Steps](https://ulriklyngs.com/post/2021/12/02/how-to-adapt-any-latex-template-for-use-with-r-markdown-in-four-steps/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blog post</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ulriklyngs.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[367 Tools of Resistance in the Battle for Online Attention](https://uxdesign.cc/367-tools-of-resistance-in-the-battle-for-online-attention-2a92ca282a65)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UX Collective (Medium)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[How to Use Pandoc Filters for Advanced Customisation of Your R Markdown Documents](https://ulriklyngs.com/post/2019/02/20/how-to-use-pandoc-filters-for-advanced-customisation-of-your-r-markdown-documents/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[How to Create New Chunk Options in R Markdown](https://ulriklyngs.com/post/2019/02/03/how-to-create-new-chunk-options-in-r-markdown/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[How to Build Safari App Extensions](https://ulriklyngs.com/post/2018/11/02/how-to-build-safari-app-extensions/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[R packages for CHI papers with R Markdown](https://ulriklyngs.com/post/2018/10/29/r-packages-for-chi-papers-with-r-markdown/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[How to Write ACM Articles with R Markdown](https://ulriklyngs.com/post/2018/07/18/how-to-write-acm-articles-with-r-markdown/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Ulysses in Cyberspace](http://connectedlife.oii.ox.ac.uk/ulysses-in-cyberspace/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Connected Life Conference 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Making Statistics Make Sense](https://ulriklyngs.com/post/2017/02/26/making-statistics-make-sense/)</t>
   </si>
   <si>
     <t xml:space="preserve">2016</t>
   </si>
   <si>
-    <t xml:space="preserve">2016-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MA in the Study of Religion &amp; Psychology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Aarhus University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supervisor: [Uffe Schjødt](https://pure.au.dk/portal/en/persons/uffe-schjoedt(c2b0d5e1-b9e5-4ff1-9866-7009bc63827e).html)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thesis: Religion as a cultural tool for cognitive control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2007 --- 2011</t>
+    <t xml:space="preserve">[Digging Science Out of a Hole: The Reproducibility Index](https://ulriklyngs.com/post/2016/09/26/digging-science-out-of-a-hole-the-reproducibility-index/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self-Control in Cyberspace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Kynapse](https://www.kynapse.fr)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paris, France</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leveraging Self-Regulation Research When Designing for Digital Wellbeing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AVI'22: International Conference on Advanced Visual Interfaces</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Designing for Meaningful Interactions and Digital Wellbeing workshop](https://sites.google.com/view/design4dwb)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rome, Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self-Control in Cyberspace: The Attentional Challenges of Computing Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goodenough College &amp; University of Oxford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colloquium on AI and Regulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Venice, Italy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Reproducible academic papers with R Markdown, RStudio, Zotero, Google Docs, and LaTeX templates](https://youtu.be/aU0uetWJXis)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Reproducible Research Oxford](https://ox.ukrn.org)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Where has my cognitive prime time gone?" Understanding digital self-control struggles and appropriate interventions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept. of Computer Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Human Centred Computing](https://hcc.cs.ox.ac.uk)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Copenhagen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Copenhagen Center for Social Data Science</t>
+  </si>
+  <si>
+    <t xml:space="preserve">International Seminar organised by the [DISTRACT](https://sodas.ku.dk/projects/distract/) project: *Studying the Digital Backlash*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Selvkontrol i cyberspace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self-control in cyberspace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KulturRummet Thy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thisted Library, Denmark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Thy 360](https://thy360.dk/event/selvkontrol-i-cyberspace/8500), local event</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Reducing Digital Distraction workshop as research tool: methods and preliminary results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[DISTRACT](https://sodas.ku.dk/projects/distract/) project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talk-podcast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Slip nu den telefon! Fire gode råd til at undgå tidsrøvende distraktioner på nettet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Let go of that phone! Four pieces of good advice for avoiding time-wasting distractions on the web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">videnskab.dk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Brainstorm podcast (Danish)](https://videnskab.dk/kultur-samfund/slip-nu-den-telefon-fire-gode-raad-til-at-undgaa-tidsroevende-distraktioner-paa)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">talk-panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coping with Isolation and Loneliness - a Conversation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Linacre College</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roundtable discussion on mental health during the COVID pandemic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reproducible and Replicable Research</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Human-Centred Computing Section](https://di.ku.dk/english/research/human-centred-computing/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R Markdown in 7 Minutes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ulysses in Cyberspace: The Theory and Practice of Digital Self-Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guest lecture in [Interaction Design (IDE)](https://hip.cat/emax/teaching)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self-Control in Cyberspace: Examining Tools of Resistance in the Battle for Online Attention</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[DISTRACT](https://sodas.ku.dk/projects/distract/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cognitive Control in Cyberspace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institute of Psychology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[COINACT](https://psychology.ku.dk/coinact/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‘I Just Want to Hack Myself to Not Get Distracted’: Do Design Interventions for Self-Control on Facebook Work?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Seminars at Linacre College](https://www.linacre.ox.ac.uk/event-type/linacre-seminar)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What Can Digital Humanities Offer Hindu Studies?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxford Centre for Hindu Studies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[online lecture series (6 videos)](https://www.youtube.com/playlist?list=PLkIUogDmN_nAEqQphmDffOMBP5ljN-jXA) for a general audience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Your Digital Life During Lockdown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[University of Oxford Podcasts](https://podcasts.ox.ac.uk/your-digital-life-during-lockdown)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Deus ex Machina: What Can Digital Humanities Offer Hindu Studies?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Śākta traditions project](http://saktatraditions.org)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">‘I Just Want to Hack Myself to Not Get Distracted’: Evaluating Design Interventions for Self-Control on Facebook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">University of Washington</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Design. Use. Build. (DUB) alliance](https://dub.washington.edu/seminar.html)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2020 CHI Conference on Human Factors in Computing Systems](https://chi2019.acm.org)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pre-recorded video presentation due to the COVID-19 pandemic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://youtu.be/bsBpGkPV83w</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digital Wellbeing in Practice: Designing for Digital Self-Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Google</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Digital Wellbeing](https://wellbeing.google)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/pdfs/2020-04-22_lyngs_google_digi_wellbeing.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digital Wellbeing in Practice: Examining the Effectiveness of Digital Self-Control Strategies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxford Internet Institute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Digital Ethnography Group (OxDEG)](https://www.oii.ox.ac.uk/research/projects/oxdeg/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reproducible research with R Markdown, featuring article and PhD thesis writing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St. Peter's College</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[R user group Oxford](https://twitter.com/rusersoxford)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Psychology and Futurity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wolfson College</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Futures Thinking Conference](https://www.torch.ox.ac.uk/event/futures-thinking-conference-details)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">roundtable discussion on mental health</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q&amp;A: Self-Control in Cyberspace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indian Institute of Technology (IIT) Bombay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best of CHI2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mumbai (videolink)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computing Everything? The Limits of Algorithmic Learning</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2019 Oxford Computer Science Conference](https://oxfordcsc.com)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">moderated panel discussion with Richard Evans (Deepmind), Peter Millican, Hao Ni, and Luba Elliott</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Self-Control in Cyberspace: Applying Dual Systems Theory to a Review of Digital Self-Control Tools</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Owning" Your DPhil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Workshop for new DPhil (PhD) students</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2019 CHI Conference on Human Factors in Computing Systems](https://chi2019.acm.org)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glasgow, UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Putting Self-Control at the Centre of Digital Wellbeing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2019 CHI Conference on Human Factors in Computing Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Designing for Digital Wellbeing Workshop](https://digitalwellbeingworkshop.wordpress.com)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">So, Tell Me What Users Want, What They Really, Really Want!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BBC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BBC Radio Theatre, New Broadcasting House, London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Conference on AI, Society &amp; the Media</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hacking the Attention Economy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[UnBias](https://unbias.wp.horizon.ac.uk/) Hackathon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeBase</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edinburgh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evaluating Anti-Distraction Browser Extensions for Facebook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ulysses in Cyberspace: How Anti-Distraction Apps Can Guide Digital Design</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DOMUS Research Communication Competition</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ICTs and Attention Management: Evaluating the Emerging Anti-Distraction Market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[2017 Oxford Computer Science Conference](https://oxfordcsc.com)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Battle of the Social Machines: Attention Management in the Information Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Human Centred Computing](https://hcc.cs.ox.ac.uk) workshop: *Being Responsible in Research: Opportunities and Challenges* workshop</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Distraction and Self-Regulation in Social Machines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesus College</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[SOCIAM: The Theory and Practice of Social Machines](https://sociam.org) project meeting</t>
+  </si>
+  <si>
+    <t xml:space="preserve">How to Build Minimally-Distracting Technology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PubhD](http://pubhd.org)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">science communication and pints</t>
+  </si>
+  <si>
+    <t xml:space="preserve">St Aldate's Tavern, Oxford</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attention Management in the Information Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[SOCIAM: The Theory and Practice of Social Machines](https://sociam.org)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">project meeting at Brockenhurst, UK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Religion: A Culturally Evolved Tool for Self-Control</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Institute of Culture and Society</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Religion, Cognition and Culture](https://rcc.au.dk) research unit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fundamental Motivations and Risk-Taking: Loss Aversion in Context</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[26th Annual Human Behavior and Evolution Society Conference](https://www.hbes.com/conference/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Natal, Brazil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Effort, Loss Aversion and Religion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Homo Experimentalis: Experimental Approaches in The Study of Religion](https://religionistika.phil.muni.cz/levyna2012/program.php)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brno, Czech Republic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poster</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What the Anti-Distraction Market Tells Us About Digital Technology and Self-Regulation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Connected Life Conference 2018](https://connectedlife.oii.ox.ac.uk/past-conferences/conference-life-2018/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A Cognitive Design Space for Supporting Self-Regulation of ICT Use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2018 CHI Conference on Human Factors in Computing Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[3rd Symposium on Computing and Mental Health](https://dl.acm.org/doi/10.1145/3170427.3170665)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montreal, Canada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“It’s More Fun With My Phone": A Replication Study of Cell Phone Presence and Task Performance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[39th Annual Conference of the Cognitive Science Society](https://cogsci.mindmodeling.org/2017/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">London</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ulysses in Cyberspace: Evaluating the Anti-Distraction Market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Connected Life Conference 2017](https://connectedlife.oii.ox.ac.uk/past-conferences/connected-life-2017/)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curiosity, ICTs and Attention Management: Evaluating the Emerging Anti-Distraction Market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017 CHI Conference on Human Factors in Computing Systems</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Designing for Curiosity Workshop](https://dl.acm.org/doi/10.1145/3027063.3027064)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Denver, Colorado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wild Cooperation: Studying Real-World Reciprocity Using Couchsurfing.org</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central European University</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Morality: Evolutionary Origins and Cognitive Mechanisms](https://summeruniversity.ceu.edu/morality-2014)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budapest</t>
   </si>
   <si>
     <t xml:space="preserve">2011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2011-02-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BA in the Study of Religion &amp; Psychology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supervisors: [Jesper Sørensen](https://pure.au.dk/portal/da/persons/jesper-soerensen(6eb687a7-1af7-48c0-bad1-cc9cc0ba3054).html) and [Kristoffer Laigaard Nielbo](https://pure.au.dk/portal/en/persons/kristoffer-laigaard-nielbo(aef8887c-d4e9-4270-9031-1a15553f5590).html)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thesis: Priming effects of religious concepts on moral judgment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">awards</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Winner of the 2020 [Oxford Three Minute Thesis competition](https://www.ox.ac.uk/students/three-minute-thesis-competition)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mathematical, Physical and Life Sciences Division, University of Oxford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conducted online due to the corona pandemic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Commendation Certificate for the Reducing Digital Distraction Workshop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[MPLS Impact Awards](https://www.mpls.ox.ac.uk/news/mpls-impact-awards-2020-winners-announced-at-winter-reception), University of Oxford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best Talk Award</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019 Oxford Computer Science Conference, University of Oxford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">£200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best Paper Honorable Mention Award for "Self-Control in Cyberspace..."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHI’19: ACM Conference on Human Factors in Computing Systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best Paper Award for "Third party tracking..."</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WebSci'18: ACM Conference on Web Science, Amsterdam</t>
-  </si>
-  <si>
-    <t xml:space="preserve">€500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOMUS Prize for Outstanding Research Communication</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linacre College, University of Oxford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">£500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">minor_grants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2022</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Junior Research Fellow Grant, [Lucy Halsall Fund](https://www.linacre.ox.ac.uk/lucy-halsall-fund-and-jrf-grant-application-form)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">US research travel: visit to [Human Centered Design &amp; Engineering](https://www.hcde.washington.edu), UW, Seattle; participation in [CHI'22](https://chi2022.acm.org), New Orleans, Louisiana</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Initial validation of measures for digital self-control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">£292</t>
-  </si>
-  <si>
-    <t xml:space="preserve">major_grants</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2021 --- 2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2023-01-31</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Carlsberg Foundation Visiting Fellowship at University of Oxford](https://www.carlsbergfondet.dk/da/Forskningsaktiviteter/Bevillingsstatistik/Bevillingsoversigt/CF20_0678_Ulrik-Lyngs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Understanding Personal Digital Self-Control Struggles and Appropriate Interventions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DKK 700,000 (~£80k)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[van Houten Fund](https://governance.admin.ox.ac.uk/van-houten-fund)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Reducing Digital Distraction (ReDD) Workshop for Oxford University students</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supervisor: Maureen Freed.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~£12k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019 --- 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[EPSRC Doctoral Prize](https://epsrc.ukri.org/skills/students/dta/doctoralprize/)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supporting End-User Autonomy Over Digital Device Use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Supervisor: Nigel Shadbolt. Mentor: Max Van Kleek.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~£28k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Student Research Competition Grant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHI’18: ACM Conference on Human Factors in Computing Systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Workshop Travel Grant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Designing for Curiosity, CHI’17: ACM Conference on Human Factors in Computing Systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">€400</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CHI’17: ACM Conference on Human Factors in Computing Systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lienhard &amp; Bagby Research Grant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Institute of Social &amp; Cultural Anthropology, University of Oxford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">£1,000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Summer School Scholarship</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Helsinki</t>
-  </si>
-  <si>
-    <t xml:space="preserve">~€1000</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Undergraduate Travel Grant</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DKK 1200</t>
-  </si>
-  <si>
-    <t xml:space="preserve">service</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018 --- 2020</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2020-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Steering group member</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Transparent Statistics in Human-Computer Interaction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://transparentstatistics.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016 --- present</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reviewer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[ACM Transactions on Computer-Human Interaction (TOCHI)](http://tochi.acm.org/),  [ACM CHI Conference](https://sigchi.org/),  [Computer-Supported Cooperative Work and Social Computing](http://cscw.acm.org/2019/),  [International Journal of Human-Computer Studies](https://www.journals.elsevier.com/international-journal-of-human-computer-studies)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-06-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Main conference organiser and General Chair</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxford Computer Science Conference 2018, Dept. of Computer Science, University of Oxford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017 --- 2018</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">President of the Computer Science Graduate Society (CoGS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dept. of Computer Science, University of Oxford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organised and chaired termly CoGS planning meetings, Computer Science representative at termly orienting meetings in the mathematical, physical, engineering and life sciences division (MPLS).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016 --- 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DPhil representative in the Computer Science Graduate Society (CoGS)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Participated in termly meetings, organised numerous social coffee, pizza, and drinks sessions. Reviewed submissions for the annual Oxford Computer Science Conference and chaired multiple sessions at the event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012 --- 2016</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2016-08-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Executive committee member in the [London Evolutionary Research Network](https://londonevolution.org) (LERN)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">London, UK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organised regular talks (30+) plus annual conferences (3) on cutting-edge evolutionary research, for early career researchers across universities and departments in southern UK.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2008 --- 2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2012-01-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chairman of the [Society for the Study of Religion (RvF)](https://studerende.au.dk/studier/fagportaler/arts/religionsvidenskabelig-forening/)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dept. for the Study of Religion, Aarhus University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Organised and chaired monthly committee meetings; chaired monthly research talks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pop-writing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[How to Adapt Any LaTeX Template for Use With R Markdown in Four Steps](https://ulriklyngs.com/post/2021/12/02/how-to-adapt-any-latex-template-for-use-with-r-markdown-in-four-steps/)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Blog post</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ulriklyngs.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[367 Tools of Resistance in the Battle for Online Attention](https://uxdesign.cc/367-tools-of-resistance-in-the-battle-for-online-attention-2a92ca282a65)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UX Collective (Medium)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[How to Use Pandoc Filters for Advanced Customisation of Your R Markdown Documents](https://ulriklyngs.com/post/2019/02/20/how-to-use-pandoc-filters-for-advanced-customisation-of-your-r-markdown-documents/)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[How to Create New Chunk Options in R Markdown](https://ulriklyngs.com/post/2019/02/03/how-to-create-new-chunk-options-in-r-markdown/)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[How to Build Safari App Extensions](https://ulriklyngs.com/post/2018/11/02/how-to-build-safari-app-extensions/)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[R packages for CHI papers with R Markdown](https://ulriklyngs.com/post/2018/10/29/r-packages-for-chi-papers-with-r-markdown/)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[How to Write ACM Articles with R Markdown](https://ulriklyngs.com/post/2018/07/18/how-to-write-acm-articles-with-r-markdown/)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Ulysses in Cyberspace](http://connectedlife.oii.ox.ac.uk/ulysses-in-cyberspace/)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Connected Life Conference 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Making Statistics Make Sense](https://ulriklyngs.com/post/2017/02/26/making-statistics-make-sense/)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Digging Science Out of a Hole: The Reproducibility Index](https://ulriklyngs.com/post/2016/09/26/digging-science-out-of-a-hole-the-reproducibility-index/)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">talk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Self-Control in Cyberspace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Kynapse](https://www.kynapse.fr)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paris, France</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leveraging Self-Regulation Research When Designing for Digital Wellbeing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AVI'22: International Conference on Advanced Visual Interfaces</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Designing for Meaningful Interactions and Digital Wellbeing workshop](https://sites.google.com/view/design4dwb)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Rome, Italy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Self-Control in Cyberspace: The Attentional Challenges of Computing Technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Goodenough College &amp; University of Oxford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Colloquium on AI and Regulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Venice, Italy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Reproducible academic papers with R Markdown, RStudio, Zotero, Google Docs, and LaTeX templates](https://youtu.be/aU0uetWJXis)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Reproducible Research Oxford](https://ox.ukrn.org)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Where has my cognitive prime time gone?" Understanding digital self-control struggles and appropriate interventions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dept. of Computer Science</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Human Centred Computing](https://hcc.cs.ox.ac.uk)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Copenhagen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copenhagen Center for Social Data Science</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International Seminar organised by the [DISTRACT](https://sodas.ku.dk/projects/distract/) project: *Studying the Digital Backlash*</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selvkontrol i cyberspace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Self-control in cyberspace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KulturRummet Thy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thisted Library, Denmark</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Thy 360](https://thy360.dk/event/selvkontrol-i-cyberspace/8500), local event</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The Reducing Digital Distraction workshop as research tool: methods and preliminary results</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[DISTRACT](https://sodas.ku.dk/projects/distract/) project</t>
-  </si>
-  <si>
-    <t xml:space="preserve">talk-podcast</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Slip nu den telefon! Fire gode råd til at undgå tidsrøvende distraktioner på nettet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Let go of that phone! Four pieces of good advice for avoiding time-wasting distractions on the web</t>
-  </si>
-  <si>
-    <t xml:space="preserve">videnskab.dk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Brainstorm podcast (Danish)](https://videnskab.dk/kultur-samfund/slip-nu-den-telefon-fire-gode-raad-til-at-undgaa-tidsroevende-distraktioner-paa)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">talk-panel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coping with Isolation and Loneliness - a Conversation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linacre College</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Roundtable discussion on mental health during the COVID pandemic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reproducible and Replicable Research</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Human-Centred Computing Section](https://di.ku.dk/english/research/human-centred-computing/)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">R Markdown in 7 Minutes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ulysses in Cyberspace: The Theory and Practice of Digital Self-Control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Guest lecture in [Interaction Design (IDE)](https://hip.cat/emax/teaching)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Self-Control in Cyberspace: Examining Tools of Resistance in the Battle for Online Attention</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[DISTRACT](https://sodas.ku.dk/projects/distract/)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cognitive Control in Cyberspace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Institute of Psychology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[COINACT](https://psychology.ku.dk/coinact/)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‘I Just Want to Hack Myself to Not Get Distracted’: Do Design Interventions for Self-Control on Facebook Work?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Seminars at Linacre College](https://www.linacre.ox.ac.uk/event-type/linacre-seminar)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What Can Digital Humanities Offer Hindu Studies?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxford Centre for Hindu Studies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[online lecture series (6 videos)](https://www.youtube.com/playlist?list=PLkIUogDmN_nAEqQphmDffOMBP5ljN-jXA) for a general audience</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Your Digital Life During Lockdown</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[University of Oxford Podcasts](https://podcasts.ox.ac.uk/your-digital-life-during-lockdown)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Deus ex Machina: What Can Digital Humanities Offer Hindu Studies?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Śākta traditions project](http://saktatraditions.org)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">‘I Just Want to Hack Myself to Not Get Distracted’: Evaluating Design Interventions for Self-Control on Facebook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">University of Washington</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Design. Use. Build. (DUB) alliance](https://dub.washington.edu/seminar.html)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2020 CHI Conference on Human Factors in Computing Systems](https://chi2019.acm.org)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">pre-recorded video presentation due to the COVID-19 pandemic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://youtu.be/bsBpGkPV83w</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digital Wellbeing in Practice: Designing for Digital Self-Control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Google</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Digital Wellbeing](https://wellbeing.google)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">/pdfs/2020-04-22_lyngs_google_digi_wellbeing.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Digital Wellbeing in Practice: Examining the Effectiveness of Digital Self-Control Strategies</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oxford Internet Institute</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Digital Ethnography Group (OxDEG)](https://www.oii.ox.ac.uk/research/projects/oxdeg/)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reproducible research with R Markdown, featuring article and PhD thesis writing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St. Peter's College</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[R user group Oxford](https://twitter.com/rusersoxford)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Psychology and Futurity</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wolfson College</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Futures Thinking Conference](https://www.torch.ox.ac.uk/event/futures-thinking-conference-details)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">roundtable discussion on mental health</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q&amp;A: Self-Control in Cyberspace</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Indian Institute of Technology (IIT) Bombay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Best of CHI2019</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mumbai (videolink)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Computing Everything? The Limits of Algorithmic Learning</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2019 Oxford Computer Science Conference](https://oxfordcsc.com)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">moderated panel discussion with Richard Evans (Deepmind), Peter Millican, Hao Ni, and Luba Elliott</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Self-Control in Cyberspace: Applying Dual Systems Theory to a Review of Digital Self-Control Tools</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Owning" Your DPhil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Workshop for new DPhil (PhD) students</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2019 CHI Conference on Human Factors in Computing Systems](https://chi2019.acm.org)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Glasgow, UK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Putting Self-Control at the Centre of Digital Wellbeing</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2019 CHI Conference on Human Factors in Computing Systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Designing for Digital Wellbeing Workshop](https://digitalwellbeingworkshop.wordpress.com)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">So, Tell Me What Users Want, What They Really, Really Want!</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBC</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BBC Radio Theatre, New Broadcasting House, London</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Conference on AI, Society &amp; the Media</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hacking the Attention Economy</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[UnBias](https://unbias.wp.horizon.ac.uk/) Hackathon</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeBase</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Edinburgh</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Evaluating Anti-Distraction Browser Extensions for Facebook</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ulysses in Cyberspace: How Anti-Distraction Apps Can Guide Digital Design</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DOMUS Research Communication Competition</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ICTs and Attention Management: Evaluating the Emerging Anti-Distraction Market</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[2017 Oxford Computer Science Conference](https://oxfordcsc.com)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Battle of the Social Machines: Attention Management in the Information Age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Human Centred Computing](https://hcc.cs.ox.ac.uk) workshop: *Being Responsible in Research: Opportunities and Challenges* workshop</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Distraction and Self-Regulation in Social Machines</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jesus College</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[SOCIAM: The Theory and Practice of Social Machines](https://sociam.org) project meeting</t>
-  </si>
-  <si>
-    <t xml:space="preserve">How to Build Minimally-Distracting Technology</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PubhD](http://pubhd.org)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">science communication and pints</t>
-  </si>
-  <si>
-    <t xml:space="preserve">St Aldate's Tavern, Oxford</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attention Management in the Information Age</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[SOCIAM: The Theory and Practice of Social Machines](https://sociam.org)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">project meeting at Brockenhurst, UK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2015</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Religion: A Culturally Evolved Tool for Self-Control</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Institute of Culture and Society</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Religion, Cognition and Culture](https://rcc.au.dk) research unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2014</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fundamental Motivations and Risk-Taking: Loss Aversion in Context</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[26th Annual Human Behavior and Evolution Society Conference](https://www.hbes.com/conference/)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Natal, Brazil</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Effort, Loss Aversion and Religion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Homo Experimentalis: Experimental Approaches in The Study of Religion](https://religionistika.phil.muni.cz/levyna2012/program.php)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Brno, Czech Republic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">poster</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What the Anti-Distraction Market Tells Us About Digital Technology and Self-Regulation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Connected Life Conference 2018](https://connectedlife.oii.ox.ac.uk/past-conferences/conference-life-2018/)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A Cognitive Design Space for Supporting Self-Regulation of ICT Use</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2018 CHI Conference on Human Factors in Computing Systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[3rd Symposium on Computing and Mental Health](https://dl.acm.org/doi/10.1145/3170427.3170665)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Montreal, Canada</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“It’s More Fun With My Phone": A Replication Study of Cell Phone Presence and Task Performance</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[39th Annual Conference of the Cognitive Science Society](https://cogsci.mindmodeling.org/2017/)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">London</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ulysses in Cyberspace: Evaluating the Anti-Distraction Market</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Connected Life Conference 2017](https://connectedlife.oii.ox.ac.uk/past-conferences/connected-life-2017/)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Curiosity, ICTs and Attention Management: Evaluating the Emerging Anti-Distraction Market</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017 CHI Conference on Human Factors in Computing Systems</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Designing for Curiosity Workshop](https://dl.acm.org/doi/10.1145/3027063.3027064)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Denver, Colorado</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Wild Cooperation: Studying Real-World Reciprocity Using Couchsurfing.org</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Central European University</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Morality: Evolutionary Origins and Cognitive Mechanisms](https://summeruniversity.ceu.edu/morality-2014)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Budapest</t>
   </si>
   <si>
     <t xml:space="preserve">Priming Effects of Religious Concepts on Moral Judgment – Between Mean Values and Variation</t>
@@ -2082,35 +2076,30 @@
       <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
-        <v>18</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
         <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>44228</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
+      <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
-      <c r="I2"/>
-      <c r="J2" t="s">
-        <v>23</v>
-      </c>
+      <c r="I2" t="s">
+        <v>22</v>
+      </c>
+      <c r="J2"/>
       <c r="K2"/>
       <c r="L2"/>
       <c r="M2"/>
@@ -2119,33 +2108,30 @@
       <c r="P2"/>
       <c r="Q2"/>
       <c r="R2"/>
-      <c r="S2"/>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>43922</v>
       </c>
       <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
+      <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
+      <c r="I3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J3"/>
       <c r="K3"/>
       <c r="L3"/>
       <c r="M3"/>
@@ -2153,191 +2139,178 @@
       <c r="O3"/>
       <c r="P3"/>
       <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3" t="s">
-        <v>29</v>
+      <c r="R3" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>42644</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" t="s">
-        <v>33</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
-      <c r="I4"/>
+      <c r="I4" t="s">
+        <v>32</v>
+      </c>
       <c r="J4" t="s">
+        <v>33</v>
+      </c>
+      <c r="K4" t="s">
         <v>34</v>
       </c>
-      <c r="K4" t="s">
-        <v>35</v>
-      </c>
-      <c r="L4" t="s">
-        <v>36</v>
-      </c>
+      <c r="L4"/>
       <c r="M4"/>
       <c r="N4"/>
       <c r="O4"/>
       <c r="P4"/>
       <c r="Q4"/>
       <c r="R4"/>
-      <c r="S4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>41183</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E5" t="s">
-        <v>39</v>
-      </c>
-      <c r="F5" t="s">
-        <v>40</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="F5"/>
       <c r="G5"/>
       <c r="H5"/>
-      <c r="I5"/>
+      <c r="I5" t="s">
+        <v>32</v>
+      </c>
       <c r="J5" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="K5" t="s">
-        <v>41</v>
-      </c>
-      <c r="L5" t="s">
-        <v>42</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="L5"/>
       <c r="M5"/>
       <c r="N5"/>
       <c r="O5"/>
       <c r="P5"/>
       <c r="Q5"/>
       <c r="R5"/>
-      <c r="S5"/>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>40575</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F6" t="s">
-        <v>46</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="F6"/>
       <c r="G6"/>
       <c r="H6"/>
-      <c r="I6"/>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
       <c r="J6" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="K6" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" t="s">
-        <v>49</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="L6"/>
       <c r="M6"/>
       <c r="N6"/>
       <c r="O6"/>
       <c r="P6"/>
       <c r="Q6"/>
       <c r="R6"/>
-      <c r="S6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>39326</v>
       </c>
       <c r="D7" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
-      </c>
-      <c r="F7" t="s">
-        <v>53</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="F7"/>
       <c r="G7"/>
       <c r="H7"/>
-      <c r="I7"/>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
       <c r="J7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
-      </c>
-      <c r="L7" t="s">
-        <v>55</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="L7"/>
       <c r="M7"/>
       <c r="N7"/>
       <c r="O7"/>
       <c r="P7"/>
       <c r="Q7"/>
       <c r="R7"/>
-      <c r="S7"/>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B8" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>44025</v>
       </c>
       <c r="D8"/>
-      <c r="E8"/>
-      <c r="F8" t="s">
-        <v>58</v>
-      </c>
+      <c r="E8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
-      <c r="I8"/>
+      <c r="I8" t="s">
+        <v>54</v>
+      </c>
       <c r="J8" t="s">
-        <v>59</v>
-      </c>
-      <c r="K8" t="s">
-        <v>60</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="K8"/>
       <c r="L8"/>
       <c r="M8"/>
       <c r="N8"/>
@@ -2345,29 +2318,28 @@
       <c r="P8"/>
       <c r="Q8"/>
       <c r="R8"/>
-      <c r="S8"/>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>43872</v>
       </c>
       <c r="D9"/>
-      <c r="E9"/>
-      <c r="F9" t="s">
-        <v>61</v>
-      </c>
+      <c r="E9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F9"/>
       <c r="G9"/>
       <c r="H9"/>
-      <c r="I9"/>
-      <c r="J9" t="s">
-        <v>62</v>
-      </c>
+      <c r="I9" t="s">
+        <v>57</v>
+      </c>
+      <c r="J9"/>
       <c r="K9"/>
       <c r="L9"/>
       <c r="M9"/>
@@ -2376,62 +2348,60 @@
       <c r="P9"/>
       <c r="Q9"/>
       <c r="R9"/>
-      <c r="S9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>43622</v>
       </c>
       <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10" t="s">
-        <v>64</v>
-      </c>
+      <c r="E10" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
-      <c r="I10"/>
-      <c r="J10" t="s">
-        <v>65</v>
-      </c>
-      <c r="K10"/>
-      <c r="L10" t="s">
-        <v>66</v>
-      </c>
+      <c r="I10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J10"/>
+      <c r="K10" t="s">
+        <v>61</v>
+      </c>
+      <c r="L10"/>
       <c r="M10"/>
       <c r="N10"/>
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
       <c r="R10"/>
-      <c r="S10"/>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>43592</v>
       </c>
       <c r="D11"/>
-      <c r="E11"/>
-      <c r="F11" t="s">
-        <v>67</v>
-      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F11"/>
       <c r="G11"/>
       <c r="H11"/>
-      <c r="I11"/>
-      <c r="J11" t="s">
-        <v>68</v>
-      </c>
+      <c r="I11" t="s">
+        <v>63</v>
+      </c>
+      <c r="J11"/>
       <c r="K11"/>
       <c r="L11"/>
       <c r="M11"/>
@@ -2440,562 +2410,536 @@
       <c r="P11"/>
       <c r="Q11"/>
       <c r="R11"/>
-      <c r="S11"/>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>43247</v>
       </c>
       <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12" t="s">
-        <v>70</v>
-      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12"/>
       <c r="G12"/>
       <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12" t="s">
-        <v>71</v>
-      </c>
-      <c r="K12"/>
-      <c r="L12" t="s">
-        <v>72</v>
-      </c>
+      <c r="I12" t="s">
+        <v>66</v>
+      </c>
+      <c r="J12"/>
+      <c r="K12" t="s">
+        <v>67</v>
+      </c>
+      <c r="L12"/>
       <c r="M12"/>
       <c r="N12"/>
       <c r="O12"/>
       <c r="P12"/>
       <c r="Q12"/>
       <c r="R12"/>
-      <c r="S12"/>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>42917</v>
       </c>
       <c r="D13"/>
-      <c r="E13"/>
-      <c r="F13" t="s">
-        <v>74</v>
-      </c>
+      <c r="E13" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13"/>
       <c r="G13"/>
       <c r="H13"/>
-      <c r="I13"/>
-      <c r="J13" t="s">
-        <v>75</v>
-      </c>
-      <c r="K13"/>
-      <c r="L13" t="s">
-        <v>76</v>
-      </c>
+      <c r="I13" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13"/>
+      <c r="K13" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13"/>
       <c r="M13"/>
       <c r="N13"/>
       <c r="O13"/>
       <c r="P13"/>
       <c r="Q13"/>
       <c r="R13"/>
-      <c r="S13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>44747</v>
       </c>
       <c r="D14"/>
-      <c r="E14"/>
-      <c r="F14" t="s">
-        <v>79</v>
-      </c>
+      <c r="E14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14"/>
       <c r="G14"/>
       <c r="H14"/>
-      <c r="I14"/>
-      <c r="J14" t="s">
-        <v>80</v>
-      </c>
-      <c r="K14"/>
-      <c r="L14" t="s">
-        <v>76</v>
-      </c>
+      <c r="I14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14"/>
+      <c r="K14" t="s">
+        <v>71</v>
+      </c>
+      <c r="L14"/>
       <c r="M14"/>
       <c r="N14"/>
       <c r="O14"/>
       <c r="P14"/>
       <c r="Q14"/>
       <c r="R14"/>
-      <c r="S14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>44348</v>
       </c>
       <c r="D15"/>
-      <c r="E15"/>
-      <c r="F15" t="s">
-        <v>79</v>
-      </c>
+      <c r="E15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15"/>
       <c r="G15"/>
       <c r="H15"/>
-      <c r="I15"/>
-      <c r="J15" t="s">
-        <v>81</v>
-      </c>
-      <c r="K15"/>
-      <c r="L15" t="s">
-        <v>82</v>
-      </c>
+      <c r="I15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J15"/>
+      <c r="K15" t="s">
+        <v>78</v>
+      </c>
+      <c r="L15"/>
       <c r="M15"/>
       <c r="N15"/>
       <c r="O15"/>
       <c r="P15"/>
       <c r="Q15"/>
       <c r="R15"/>
-      <c r="S15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B16" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>44228</v>
       </c>
       <c r="D16" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="E16" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" t="s">
-        <v>87</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="F16"/>
       <c r="G16"/>
       <c r="H16"/>
-      <c r="I16"/>
-      <c r="J16" t="s">
-        <v>88</v>
-      </c>
-      <c r="K16"/>
-      <c r="L16" t="s">
-        <v>89</v>
-      </c>
+      <c r="I16" t="s">
+        <v>83</v>
+      </c>
+      <c r="J16"/>
+      <c r="K16" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16"/>
       <c r="M16"/>
       <c r="N16"/>
       <c r="O16"/>
       <c r="P16"/>
-      <c r="Q16"/>
-      <c r="R16" t="s">
-        <v>29</v>
-      </c>
-      <c r="S16"/>
+      <c r="Q16" t="s">
+        <v>27</v>
+      </c>
+      <c r="R16"/>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>43970</v>
       </c>
       <c r="D17"/>
-      <c r="E17"/>
-      <c r="F17" t="s">
-        <v>90</v>
-      </c>
+      <c r="E17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17"/>
       <c r="G17"/>
       <c r="H17"/>
-      <c r="I17"/>
+      <c r="I17" t="s">
+        <v>86</v>
+      </c>
       <c r="J17" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="K17" t="s">
-        <v>92</v>
-      </c>
-      <c r="L17" t="s">
-        <v>93</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="L17"/>
       <c r="M17"/>
       <c r="N17"/>
       <c r="O17"/>
       <c r="P17"/>
       <c r="Q17"/>
       <c r="R17"/>
-      <c r="S17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>43800</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="E18" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" t="s">
-        <v>96</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="F18"/>
       <c r="G18"/>
       <c r="H18"/>
-      <c r="I18"/>
+      <c r="I18" t="s">
+        <v>92</v>
+      </c>
       <c r="J18" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K18" t="s">
-        <v>98</v>
-      </c>
-      <c r="L18" t="s">
-        <v>99</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="L18"/>
       <c r="M18"/>
       <c r="N18"/>
       <c r="O18"/>
       <c r="P18"/>
-      <c r="Q18"/>
-      <c r="R18" t="s">
-        <v>29</v>
-      </c>
-      <c r="S18"/>
+      <c r="Q18" t="s">
+        <v>27</v>
+      </c>
+      <c r="R18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>43211</v>
       </c>
       <c r="D19"/>
-      <c r="E19"/>
-      <c r="F19" t="s">
-        <v>100</v>
-      </c>
+      <c r="E19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19"/>
       <c r="G19"/>
       <c r="H19"/>
-      <c r="I19"/>
-      <c r="J19" t="s">
-        <v>101</v>
-      </c>
-      <c r="K19"/>
-      <c r="L19" t="s">
-        <v>102</v>
-      </c>
+      <c r="I19" t="s">
+        <v>96</v>
+      </c>
+      <c r="J19"/>
+      <c r="K19" t="s">
+        <v>97</v>
+      </c>
+      <c r="L19"/>
       <c r="M19"/>
       <c r="N19"/>
       <c r="O19"/>
       <c r="P19"/>
       <c r="Q19"/>
       <c r="R19"/>
-      <c r="S19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>42863</v>
       </c>
       <c r="D20"/>
-      <c r="E20"/>
-      <c r="F20" t="s">
-        <v>103</v>
-      </c>
+      <c r="E20" t="s">
+        <v>98</v>
+      </c>
+      <c r="F20"/>
       <c r="G20"/>
       <c r="H20"/>
-      <c r="I20"/>
-      <c r="J20" t="s">
-        <v>104</v>
-      </c>
-      <c r="K20"/>
-      <c r="L20" t="s">
-        <v>105</v>
-      </c>
+      <c r="I20" t="s">
+        <v>99</v>
+      </c>
+      <c r="J20"/>
+      <c r="K20" t="s">
+        <v>100</v>
+      </c>
+      <c r="L20"/>
       <c r="M20"/>
       <c r="N20"/>
       <c r="O20"/>
       <c r="P20"/>
       <c r="Q20"/>
       <c r="R20"/>
-      <c r="S20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>42863</v>
       </c>
       <c r="D21"/>
-      <c r="E21"/>
-      <c r="F21" t="s">
-        <v>100</v>
-      </c>
+      <c r="E21" t="s">
+        <v>95</v>
+      </c>
+      <c r="F21"/>
       <c r="G21"/>
       <c r="H21"/>
-      <c r="I21"/>
-      <c r="J21" t="s">
-        <v>106</v>
-      </c>
-      <c r="K21"/>
-      <c r="L21" t="s">
-        <v>102</v>
-      </c>
+      <c r="I21" t="s">
+        <v>101</v>
+      </c>
+      <c r="J21"/>
+      <c r="K21" t="s">
+        <v>97</v>
+      </c>
+      <c r="L21"/>
       <c r="M21"/>
       <c r="N21"/>
       <c r="O21"/>
       <c r="P21"/>
       <c r="Q21"/>
       <c r="R21"/>
-      <c r="S21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>41306</v>
       </c>
       <c r="D22"/>
-      <c r="E22"/>
-      <c r="F22" t="s">
-        <v>107</v>
-      </c>
+      <c r="E22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F22"/>
       <c r="G22"/>
       <c r="H22"/>
-      <c r="I22"/>
-      <c r="J22" t="s">
-        <v>108</v>
-      </c>
-      <c r="K22"/>
-      <c r="L22" t="s">
-        <v>109</v>
-      </c>
+      <c r="I22" t="s">
+        <v>104</v>
+      </c>
+      <c r="J22"/>
+      <c r="K22" t="s">
+        <v>105</v>
+      </c>
+      <c r="L22"/>
       <c r="M22"/>
       <c r="N22"/>
       <c r="O22"/>
       <c r="P22"/>
       <c r="Q22"/>
       <c r="R22"/>
-      <c r="S22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>39569</v>
       </c>
       <c r="D23"/>
-      <c r="E23"/>
-      <c r="F23" t="s">
-        <v>111</v>
-      </c>
+      <c r="E23" t="s">
+        <v>107</v>
+      </c>
+      <c r="F23"/>
       <c r="G23"/>
       <c r="H23"/>
-      <c r="I23"/>
-      <c r="J23" t="s">
-        <v>112</v>
-      </c>
-      <c r="K23"/>
-      <c r="L23" t="s">
-        <v>113</v>
-      </c>
+      <c r="I23" t="s">
+        <v>108</v>
+      </c>
+      <c r="J23"/>
+      <c r="K23" t="s">
+        <v>109</v>
+      </c>
+      <c r="L23"/>
       <c r="M23"/>
       <c r="N23"/>
-      <c r="O23"/>
+      <c r="O23" t="s">
+        <v>110</v>
+      </c>
       <c r="P23" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>114</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="Q23"/>
       <c r="R23"/>
-      <c r="S23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>39569</v>
       </c>
       <c r="D24"/>
-      <c r="E24"/>
-      <c r="F24" t="s">
-        <v>115</v>
-      </c>
+      <c r="E24" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24"/>
       <c r="G24"/>
       <c r="H24"/>
-      <c r="I24"/>
-      <c r="J24" t="s">
-        <v>47</v>
-      </c>
-      <c r="K24"/>
-      <c r="L24" t="s">
-        <v>116</v>
-      </c>
+      <c r="I24" t="s">
+        <v>43</v>
+      </c>
+      <c r="J24"/>
+      <c r="K24" t="s">
+        <v>112</v>
+      </c>
+      <c r="L24"/>
       <c r="M24"/>
       <c r="N24"/>
-      <c r="O24"/>
+      <c r="O24" t="s">
+        <v>110</v>
+      </c>
       <c r="P24" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>114</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="Q24"/>
       <c r="R24"/>
-      <c r="S24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B25" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>43221</v>
       </c>
       <c r="D25" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="E25" t="s">
-        <v>119</v>
-      </c>
-      <c r="F25" t="s">
-        <v>120</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="F25"/>
       <c r="G25"/>
       <c r="H25"/>
-      <c r="I25"/>
-      <c r="J25" t="s">
-        <v>121</v>
-      </c>
+      <c r="I25" t="s">
+        <v>117</v>
+      </c>
+      <c r="J25"/>
       <c r="K25"/>
-      <c r="L25"/>
-      <c r="M25" t="s">
-        <v>122</v>
-      </c>
+      <c r="L25" t="s">
+        <v>118</v>
+      </c>
+      <c r="M25"/>
       <c r="N25"/>
       <c r="O25"/>
       <c r="P25"/>
-      <c r="Q25"/>
-      <c r="R25" t="s">
-        <v>29</v>
-      </c>
-      <c r="S25"/>
+      <c r="Q25" t="s">
+        <v>27</v>
+      </c>
+      <c r="R25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B26" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>42705</v>
       </c>
       <c r="D26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>21</v>
-      </c>
-      <c r="F26" t="s">
-        <v>124</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="F26"/>
       <c r="G26"/>
       <c r="H26"/>
-      <c r="I26"/>
-      <c r="J26" t="s">
-        <v>125</v>
-      </c>
+      <c r="I26" t="s">
+        <v>121</v>
+      </c>
+      <c r="J26"/>
       <c r="K26"/>
       <c r="L26"/>
       <c r="M26"/>
       <c r="N26"/>
       <c r="O26"/>
       <c r="P26"/>
-      <c r="Q26"/>
-      <c r="R26" t="s">
-        <v>29</v>
-      </c>
-      <c r="S26"/>
+      <c r="Q26" t="s">
+        <v>27</v>
+      </c>
+      <c r="R26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B27" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>43101</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>122</v>
       </c>
       <c r="E27" t="s">
-        <v>126</v>
-      </c>
-      <c r="F27" t="s">
-        <v>127</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="F27"/>
       <c r="G27"/>
       <c r="H27"/>
-      <c r="I27"/>
-      <c r="J27" t="s">
-        <v>128</v>
-      </c>
+      <c r="I27" t="s">
+        <v>124</v>
+      </c>
+      <c r="J27"/>
       <c r="K27"/>
       <c r="L27"/>
       <c r="M27"/>
@@ -3004,75 +2948,69 @@
       <c r="P27"/>
       <c r="Q27"/>
       <c r="R27"/>
-      <c r="S27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B28" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>42948</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="E28" t="s">
-        <v>130</v>
-      </c>
-      <c r="F28" t="s">
-        <v>131</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="F28"/>
       <c r="G28"/>
       <c r="H28"/>
-      <c r="I28"/>
+      <c r="I28" t="s">
+        <v>128</v>
+      </c>
       <c r="J28" t="s">
-        <v>132</v>
-      </c>
-      <c r="K28" t="s">
-        <v>133</v>
-      </c>
+        <v>129</v>
+      </c>
+      <c r="K28"/>
       <c r="L28"/>
       <c r="M28"/>
       <c r="N28"/>
       <c r="O28"/>
       <c r="P28"/>
-      <c r="Q28"/>
-      <c r="R28" t="s">
-        <v>29</v>
-      </c>
-      <c r="S28"/>
+      <c r="Q28" t="s">
+        <v>27</v>
+      </c>
+      <c r="R28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B29" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>42583</v>
       </c>
       <c r="D29" t="s">
-        <v>73</v>
+        <v>131</v>
       </c>
       <c r="E29" t="s">
-        <v>135</v>
-      </c>
-      <c r="F29" t="s">
-        <v>136</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="F29"/>
       <c r="G29"/>
       <c r="H29"/>
-      <c r="I29"/>
+      <c r="I29" t="s">
+        <v>128</v>
+      </c>
       <c r="J29" t="s">
-        <v>132</v>
-      </c>
-      <c r="K29" t="s">
-        <v>137</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="K29"/>
       <c r="L29"/>
       <c r="M29"/>
       <c r="N29"/>
@@ -3080,36 +3018,33 @@
       <c r="P29"/>
       <c r="Q29"/>
       <c r="R29"/>
-      <c r="S29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B30" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>41244</v>
       </c>
       <c r="D30" t="s">
-        <v>44</v>
+        <v>135</v>
       </c>
       <c r="E30" t="s">
-        <v>139</v>
-      </c>
-      <c r="F30" t="s">
-        <v>140</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="F30"/>
       <c r="G30"/>
       <c r="H30"/>
-      <c r="I30"/>
+      <c r="I30" t="s">
+        <v>137</v>
+      </c>
       <c r="J30" t="s">
-        <v>141</v>
-      </c>
-      <c r="K30" t="s">
-        <v>142</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="K30"/>
       <c r="L30"/>
       <c r="M30"/>
       <c r="N30"/>
@@ -3117,36 +3052,33 @@
       <c r="P30"/>
       <c r="Q30"/>
       <c r="R30"/>
-      <c r="S30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B31" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>39448</v>
       </c>
       <c r="D31" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E31" t="s">
-        <v>145</v>
-      </c>
-      <c r="F31" t="s">
-        <v>146</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="F31"/>
       <c r="G31"/>
       <c r="H31"/>
-      <c r="I31"/>
+      <c r="I31" t="s">
+        <v>142</v>
+      </c>
       <c r="J31" t="s">
-        <v>147</v>
-      </c>
-      <c r="K31" t="s">
-        <v>148</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="K31"/>
       <c r="L31"/>
       <c r="M31"/>
       <c r="N31"/>
@@ -3154,31 +3086,30 @@
       <c r="P31"/>
       <c r="Q31"/>
       <c r="R31"/>
-      <c r="S31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>44532</v>
       </c>
       <c r="D32"/>
-      <c r="E32"/>
-      <c r="F32" t="s">
-        <v>150</v>
-      </c>
-      <c r="G32"/>
-      <c r="H32" t="s">
-        <v>151</v>
-      </c>
-      <c r="I32"/>
-      <c r="J32" t="s">
-        <v>152</v>
-      </c>
+      <c r="E32" t="s">
+        <v>145</v>
+      </c>
+      <c r="F32"/>
+      <c r="G32" t="s">
+        <v>146</v>
+      </c>
+      <c r="H32"/>
+      <c r="I32" t="s">
+        <v>147</v>
+      </c>
+      <c r="J32"/>
       <c r="K32"/>
       <c r="L32"/>
       <c r="M32"/>
@@ -3187,31 +3118,30 @@
       <c r="P32"/>
       <c r="Q32"/>
       <c r="R32"/>
-      <c r="S32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B33" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>43582</v>
       </c>
       <c r="D33"/>
-      <c r="E33"/>
-      <c r="F33" t="s">
-        <v>153</v>
-      </c>
-      <c r="G33"/>
-      <c r="H33" t="s">
-        <v>151</v>
-      </c>
-      <c r="I33"/>
-      <c r="J33" t="s">
-        <v>154</v>
-      </c>
+      <c r="E33" t="s">
+        <v>148</v>
+      </c>
+      <c r="F33"/>
+      <c r="G33" t="s">
+        <v>146</v>
+      </c>
+      <c r="H33"/>
+      <c r="I33" t="s">
+        <v>149</v>
+      </c>
+      <c r="J33"/>
       <c r="K33"/>
       <c r="L33"/>
       <c r="M33"/>
@@ -3220,31 +3150,30 @@
       <c r="P33"/>
       <c r="Q33"/>
       <c r="R33"/>
-      <c r="S33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B34" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>43516</v>
       </c>
       <c r="D34"/>
-      <c r="E34"/>
-      <c r="F34" t="s">
-        <v>155</v>
-      </c>
-      <c r="G34"/>
-      <c r="H34" t="s">
-        <v>151</v>
-      </c>
-      <c r="I34"/>
-      <c r="J34" t="s">
-        <v>152</v>
-      </c>
+      <c r="E34" t="s">
+        <v>150</v>
+      </c>
+      <c r="F34"/>
+      <c r="G34" t="s">
+        <v>146</v>
+      </c>
+      <c r="H34"/>
+      <c r="I34" t="s">
+        <v>147</v>
+      </c>
+      <c r="J34"/>
       <c r="K34"/>
       <c r="L34"/>
       <c r="M34"/>
@@ -3253,31 +3182,30 @@
       <c r="P34"/>
       <c r="Q34"/>
       <c r="R34"/>
-      <c r="S34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B35" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>43499</v>
       </c>
       <c r="D35"/>
-      <c r="E35"/>
-      <c r="F35" t="s">
-        <v>156</v>
-      </c>
-      <c r="G35"/>
-      <c r="H35" t="s">
+      <c r="E35" t="s">
         <v>151</v>
       </c>
-      <c r="I35"/>
-      <c r="J35" t="s">
-        <v>152</v>
-      </c>
+      <c r="F35"/>
+      <c r="G35" t="s">
+        <v>146</v>
+      </c>
+      <c r="H35"/>
+      <c r="I35" t="s">
+        <v>147</v>
+      </c>
+      <c r="J35"/>
       <c r="K35"/>
       <c r="L35"/>
       <c r="M35"/>
@@ -3286,31 +3214,30 @@
       <c r="P35"/>
       <c r="Q35"/>
       <c r="R35"/>
-      <c r="S35"/>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B36" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>43406</v>
       </c>
       <c r="D36"/>
-      <c r="E36"/>
-      <c r="F36" t="s">
-        <v>157</v>
-      </c>
-      <c r="G36"/>
-      <c r="H36" t="s">
-        <v>151</v>
-      </c>
-      <c r="I36"/>
-      <c r="J36" t="s">
+      <c r="E36" t="s">
         <v>152</v>
       </c>
+      <c r="F36"/>
+      <c r="G36" t="s">
+        <v>146</v>
+      </c>
+      <c r="H36"/>
+      <c r="I36" t="s">
+        <v>147</v>
+      </c>
+      <c r="J36"/>
       <c r="K36"/>
       <c r="L36"/>
       <c r="M36"/>
@@ -3319,31 +3246,30 @@
       <c r="P36"/>
       <c r="Q36"/>
       <c r="R36"/>
-      <c r="S36"/>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>43402</v>
       </c>
       <c r="D37"/>
-      <c r="E37"/>
-      <c r="F37" t="s">
-        <v>158</v>
-      </c>
-      <c r="G37"/>
-      <c r="H37" t="s">
-        <v>151</v>
-      </c>
-      <c r="I37"/>
-      <c r="J37" t="s">
-        <v>152</v>
-      </c>
+      <c r="E37" t="s">
+        <v>153</v>
+      </c>
+      <c r="F37"/>
+      <c r="G37" t="s">
+        <v>146</v>
+      </c>
+      <c r="H37"/>
+      <c r="I37" t="s">
+        <v>147</v>
+      </c>
+      <c r="J37"/>
       <c r="K37"/>
       <c r="L37"/>
       <c r="M37"/>
@@ -3352,31 +3278,30 @@
       <c r="P37"/>
       <c r="Q37"/>
       <c r="R37"/>
-      <c r="S37"/>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>43299</v>
       </c>
       <c r="D38"/>
-      <c r="E38"/>
-      <c r="F38" t="s">
-        <v>159</v>
-      </c>
-      <c r="G38"/>
-      <c r="H38" t="s">
-        <v>151</v>
-      </c>
-      <c r="I38"/>
-      <c r="J38" t="s">
-        <v>152</v>
-      </c>
+      <c r="E38" t="s">
+        <v>154</v>
+      </c>
+      <c r="F38"/>
+      <c r="G38" t="s">
+        <v>146</v>
+      </c>
+      <c r="H38"/>
+      <c r="I38" t="s">
+        <v>147</v>
+      </c>
+      <c r="J38"/>
       <c r="K38"/>
       <c r="L38"/>
       <c r="M38"/>
@@ -3385,31 +3310,30 @@
       <c r="P38"/>
       <c r="Q38"/>
       <c r="R38"/>
-      <c r="S38"/>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B39" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>42893</v>
       </c>
       <c r="D39"/>
-      <c r="E39"/>
-      <c r="F39" t="s">
-        <v>160</v>
-      </c>
-      <c r="G39"/>
-      <c r="H39" t="s">
-        <v>151</v>
-      </c>
-      <c r="I39"/>
-      <c r="J39" t="s">
-        <v>161</v>
-      </c>
+      <c r="E39" t="s">
+        <v>155</v>
+      </c>
+      <c r="F39"/>
+      <c r="G39" t="s">
+        <v>146</v>
+      </c>
+      <c r="H39"/>
+      <c r="I39" t="s">
+        <v>156</v>
+      </c>
+      <c r="J39"/>
       <c r="K39"/>
       <c r="L39"/>
       <c r="M39"/>
@@ -3418,31 +3342,30 @@
       <c r="P39"/>
       <c r="Q39"/>
       <c r="R39"/>
-      <c r="S39"/>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>42792</v>
       </c>
       <c r="D40"/>
-      <c r="E40"/>
-      <c r="F40" t="s">
-        <v>162</v>
-      </c>
-      <c r="G40"/>
-      <c r="H40" t="s">
-        <v>151</v>
-      </c>
-      <c r="I40"/>
-      <c r="J40" t="s">
-        <v>152</v>
-      </c>
+      <c r="E40" t="s">
+        <v>157</v>
+      </c>
+      <c r="F40"/>
+      <c r="G40" t="s">
+        <v>146</v>
+      </c>
+      <c r="H40"/>
+      <c r="I40" t="s">
+        <v>147</v>
+      </c>
+      <c r="J40"/>
       <c r="K40"/>
       <c r="L40"/>
       <c r="M40"/>
@@ -3451,31 +3374,30 @@
       <c r="P40"/>
       <c r="Q40"/>
       <c r="R40"/>
-      <c r="S40"/>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B41" t="s">
-        <v>44</v>
+        <v>158</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>42639</v>
       </c>
       <c r="D41"/>
-      <c r="E41"/>
-      <c r="F41" t="s">
-        <v>163</v>
-      </c>
-      <c r="G41"/>
-      <c r="H41" t="s">
-        <v>151</v>
-      </c>
-      <c r="I41"/>
-      <c r="J41" t="s">
-        <v>152</v>
-      </c>
+      <c r="E41" t="s">
+        <v>159</v>
+      </c>
+      <c r="F41"/>
+      <c r="G41" t="s">
+        <v>146</v>
+      </c>
+      <c r="H41"/>
+      <c r="I41" t="s">
+        <v>147</v>
+      </c>
+      <c r="J41"/>
       <c r="K41"/>
       <c r="L41"/>
       <c r="M41"/>
@@ -3484,69 +3406,67 @@
       <c r="P41"/>
       <c r="Q41"/>
       <c r="R41"/>
-      <c r="S41"/>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B42" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>44740</v>
       </c>
       <c r="D42"/>
-      <c r="E42"/>
-      <c r="F42" t="s">
-        <v>165</v>
-      </c>
+      <c r="E42" t="s">
+        <v>161</v>
+      </c>
+      <c r="F42"/>
       <c r="G42"/>
       <c r="H42"/>
-      <c r="I42"/>
+      <c r="I42" t="s">
+        <v>162</v>
+      </c>
       <c r="J42" t="s">
-        <v>166</v>
-      </c>
-      <c r="K42" t="s">
-        <v>167</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="K42"/>
       <c r="L42"/>
       <c r="M42"/>
       <c r="N42"/>
       <c r="O42"/>
       <c r="P42"/>
-      <c r="Q42"/>
-      <c r="R42" t="s">
-        <v>29</v>
-      </c>
-      <c r="S42"/>
+      <c r="Q42" t="s">
+        <v>27</v>
+      </c>
+      <c r="R42"/>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B43" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>44718</v>
       </c>
       <c r="D43"/>
-      <c r="E43"/>
-      <c r="F43" t="s">
-        <v>168</v>
-      </c>
-      <c r="G43"/>
-      <c r="H43" t="s">
-        <v>169</v>
-      </c>
-      <c r="I43"/>
+      <c r="E43" t="s">
+        <v>164</v>
+      </c>
+      <c r="F43"/>
+      <c r="G43" t="s">
+        <v>165</v>
+      </c>
+      <c r="H43"/>
+      <c r="I43" t="s">
+        <v>166</v>
+      </c>
       <c r="J43" t="s">
-        <v>170</v>
-      </c>
-      <c r="K43" t="s">
-        <v>171</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="K43"/>
       <c r="L43"/>
       <c r="M43"/>
       <c r="N43"/>
@@ -3554,67 +3474,65 @@
       <c r="P43"/>
       <c r="Q43"/>
       <c r="R43"/>
-      <c r="S43"/>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B44" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>44646</v>
       </c>
       <c r="D44"/>
-      <c r="E44"/>
-      <c r="F44" t="s">
-        <v>172</v>
-      </c>
-      <c r="G44"/>
-      <c r="H44" t="s">
-        <v>173</v>
-      </c>
-      <c r="I44"/>
+      <c r="E44" t="s">
+        <v>168</v>
+      </c>
+      <c r="F44"/>
+      <c r="G44" t="s">
+        <v>169</v>
+      </c>
+      <c r="H44"/>
+      <c r="I44" t="s">
+        <v>170</v>
+      </c>
       <c r="J44" t="s">
-        <v>174</v>
-      </c>
-      <c r="K44" t="s">
-        <v>175</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="K44"/>
       <c r="L44"/>
       <c r="M44"/>
       <c r="N44"/>
       <c r="O44"/>
       <c r="P44"/>
-      <c r="Q44"/>
-      <c r="R44" t="s">
-        <v>29</v>
-      </c>
-      <c r="S44"/>
+      <c r="Q44" t="s">
+        <v>27</v>
+      </c>
+      <c r="R44"/>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>44508</v>
       </c>
       <c r="D45"/>
-      <c r="E45"/>
-      <c r="F45" t="s">
-        <v>176</v>
-      </c>
-      <c r="G45"/>
+      <c r="E45" t="s">
+        <v>172</v>
+      </c>
+      <c r="F45"/>
+      <c r="G45" t="s">
+        <v>32</v>
+      </c>
       <c r="H45" t="s">
-        <v>34</v>
-      </c>
-      <c r="I45" t="s">
-        <v>177</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="I45"/>
       <c r="J45"/>
       <c r="K45"/>
       <c r="L45"/>
@@ -3622,37 +3540,36 @@
       <c r="N45"/>
       <c r="O45"/>
       <c r="P45"/>
-      <c r="Q45"/>
-      <c r="R45" t="s">
-        <v>29</v>
-      </c>
-      <c r="S45"/>
+      <c r="Q45" t="s">
+        <v>27</v>
+      </c>
+      <c r="R45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B46" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>44474</v>
       </c>
       <c r="D46"/>
-      <c r="E46"/>
-      <c r="F46" t="s">
-        <v>178</v>
-      </c>
-      <c r="G46"/>
+      <c r="E46" t="s">
+        <v>174</v>
+      </c>
+      <c r="F46"/>
+      <c r="G46" t="s">
+        <v>32</v>
+      </c>
       <c r="H46" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="I46" t="s">
-        <v>179</v>
-      </c>
-      <c r="J46" t="s">
-        <v>180</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="J46"/>
       <c r="K46"/>
       <c r="L46"/>
       <c r="M46"/>
@@ -3661,72 +3578,70 @@
       <c r="P46"/>
       <c r="Q46"/>
       <c r="R46"/>
-      <c r="S46"/>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>44462</v>
       </c>
       <c r="D47"/>
-      <c r="E47"/>
-      <c r="F47" t="s">
+      <c r="E47" t="s">
+        <v>174</v>
+      </c>
+      <c r="F47"/>
+      <c r="G47" t="s">
+        <v>177</v>
+      </c>
+      <c r="H47" t="s">
         <v>178</v>
       </c>
-      <c r="G47"/>
-      <c r="H47" t="s">
-        <v>181</v>
-      </c>
       <c r="I47" t="s">
-        <v>182</v>
-      </c>
-      <c r="J47" t="s">
-        <v>183</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="J47"/>
       <c r="K47"/>
       <c r="L47"/>
       <c r="M47"/>
       <c r="N47"/>
       <c r="O47"/>
       <c r="P47"/>
-      <c r="Q47"/>
-      <c r="R47" t="s">
-        <v>29</v>
-      </c>
-      <c r="S47"/>
+      <c r="Q47" t="s">
+        <v>27</v>
+      </c>
+      <c r="R47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>44427</v>
       </c>
       <c r="D48"/>
-      <c r="E48"/>
+      <c r="E48" t="s">
+        <v>180</v>
+      </c>
       <c r="F48" t="s">
+        <v>181</v>
+      </c>
+      <c r="G48" t="s">
+        <v>182</v>
+      </c>
+      <c r="H48" t="s">
+        <v>183</v>
+      </c>
+      <c r="I48" t="s">
         <v>184</v>
       </c>
-      <c r="G48" t="s">
-        <v>185</v>
-      </c>
-      <c r="H48" t="s">
-        <v>186</v>
-      </c>
-      <c r="I48" t="s">
-        <v>187</v>
-      </c>
-      <c r="J48" t="s">
-        <v>188</v>
-      </c>
+      <c r="J48"/>
       <c r="K48"/>
       <c r="L48"/>
       <c r="M48"/>
@@ -3735,33 +3650,32 @@
       <c r="P48"/>
       <c r="Q48"/>
       <c r="R48"/>
-      <c r="S48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B49" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>44281</v>
       </c>
       <c r="D49"/>
-      <c r="E49"/>
-      <c r="F49" t="s">
-        <v>189</v>
-      </c>
-      <c r="G49"/>
+      <c r="E49" t="s">
+        <v>185</v>
+      </c>
+      <c r="F49"/>
+      <c r="G49" t="s">
+        <v>177</v>
+      </c>
       <c r="H49" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I49" t="s">
-        <v>182</v>
-      </c>
-      <c r="J49" t="s">
-        <v>190</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="J49"/>
       <c r="K49"/>
       <c r="L49"/>
       <c r="M49"/>
@@ -3770,33 +3684,32 @@
       <c r="P49"/>
       <c r="Q49"/>
       <c r="R49"/>
-      <c r="S49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>44274</v>
       </c>
       <c r="D50"/>
-      <c r="E50"/>
+      <c r="E50" t="s">
+        <v>188</v>
+      </c>
       <c r="F50" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G50" t="s">
-        <v>193</v>
-      </c>
-      <c r="H50" t="s">
-        <v>194</v>
-      </c>
-      <c r="I50"/>
-      <c r="J50" t="s">
-        <v>195</v>
-      </c>
+        <v>190</v>
+      </c>
+      <c r="H50"/>
+      <c r="I50" t="s">
+        <v>191</v>
+      </c>
+      <c r="J50"/>
       <c r="K50"/>
       <c r="L50"/>
       <c r="M50"/>
@@ -3805,33 +3718,32 @@
       <c r="P50"/>
       <c r="Q50"/>
       <c r="R50"/>
-      <c r="S50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>44259</v>
       </c>
       <c r="D51"/>
-      <c r="E51"/>
-      <c r="F51" t="s">
-        <v>197</v>
-      </c>
-      <c r="G51"/>
+      <c r="E51" t="s">
+        <v>193</v>
+      </c>
+      <c r="F51"/>
+      <c r="G51" t="s">
+        <v>32</v>
+      </c>
       <c r="H51" t="s">
-        <v>34</v>
+        <v>194</v>
       </c>
       <c r="I51" t="s">
-        <v>198</v>
-      </c>
-      <c r="J51" t="s">
-        <v>199</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="J51"/>
       <c r="K51"/>
       <c r="L51"/>
       <c r="M51"/>
@@ -3840,70 +3752,68 @@
       <c r="P51"/>
       <c r="Q51"/>
       <c r="R51"/>
-      <c r="S51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>44236</v>
       </c>
       <c r="D52"/>
-      <c r="E52"/>
-      <c r="F52" t="s">
-        <v>200</v>
-      </c>
-      <c r="G52"/>
+      <c r="E52" t="s">
+        <v>196</v>
+      </c>
+      <c r="F52"/>
+      <c r="G52" t="s">
+        <v>177</v>
+      </c>
       <c r="H52" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="I52" t="s">
-        <v>179</v>
-      </c>
-      <c r="J52" t="s">
-        <v>201</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="J52"/>
       <c r="K52"/>
       <c r="L52"/>
       <c r="M52"/>
       <c r="N52"/>
       <c r="O52"/>
       <c r="P52"/>
-      <c r="Q52"/>
-      <c r="R52" t="s">
-        <v>29</v>
-      </c>
-      <c r="S52"/>
+      <c r="Q52" t="s">
+        <v>27</v>
+      </c>
+      <c r="R52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B53" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>44229</v>
       </c>
       <c r="D53"/>
-      <c r="E53"/>
-      <c r="F53" t="s">
-        <v>202</v>
-      </c>
-      <c r="G53"/>
+      <c r="E53" t="s">
+        <v>198</v>
+      </c>
+      <c r="F53"/>
+      <c r="G53" t="s">
+        <v>32</v>
+      </c>
       <c r="H53" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="I53" t="s">
-        <v>179</v>
-      </c>
-      <c r="J53" t="s">
-        <v>180</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="J53"/>
       <c r="K53"/>
       <c r="L53"/>
       <c r="M53"/>
@@ -3912,107 +3822,104 @@
       <c r="P53"/>
       <c r="Q53"/>
       <c r="R53"/>
-      <c r="S53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>44208</v>
       </c>
       <c r="D54"/>
-      <c r="E54"/>
-      <c r="F54" t="s">
-        <v>200</v>
-      </c>
-      <c r="G54"/>
+      <c r="E54" t="s">
+        <v>196</v>
+      </c>
+      <c r="F54"/>
+      <c r="G54" t="s">
+        <v>32</v>
+      </c>
       <c r="H54" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="I54" t="s">
-        <v>179</v>
-      </c>
-      <c r="J54" t="s">
-        <v>180</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="J54"/>
       <c r="K54"/>
       <c r="L54"/>
       <c r="M54"/>
       <c r="N54"/>
       <c r="O54"/>
       <c r="P54"/>
-      <c r="Q54"/>
-      <c r="R54" t="s">
-        <v>29</v>
-      </c>
-      <c r="S54"/>
+      <c r="Q54" t="s">
+        <v>27</v>
+      </c>
+      <c r="R54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B55" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C55" s="2" t="n">
         <v>44174</v>
       </c>
       <c r="D55"/>
-      <c r="E55"/>
-      <c r="F55" t="s">
-        <v>203</v>
-      </c>
-      <c r="G55"/>
+      <c r="E55" t="s">
+        <v>199</v>
+      </c>
+      <c r="F55"/>
+      <c r="G55" t="s">
+        <v>32</v>
+      </c>
       <c r="H55" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="I55" t="s">
-        <v>179</v>
-      </c>
-      <c r="J55" t="s">
-        <v>204</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="J55"/>
       <c r="K55"/>
       <c r="L55"/>
       <c r="M55"/>
       <c r="N55"/>
       <c r="O55"/>
       <c r="P55"/>
-      <c r="Q55"/>
-      <c r="R55" t="s">
-        <v>29</v>
-      </c>
-      <c r="S55"/>
+      <c r="Q55" t="s">
+        <v>27</v>
+      </c>
+      <c r="R55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B56" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C56" s="2" t="n">
         <v>44134</v>
       </c>
       <c r="D56"/>
-      <c r="E56"/>
-      <c r="F56" t="s">
-        <v>205</v>
-      </c>
-      <c r="G56"/>
+      <c r="E56" t="s">
+        <v>201</v>
+      </c>
+      <c r="F56"/>
+      <c r="G56" t="s">
+        <v>177</v>
+      </c>
       <c r="H56" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="I56" t="s">
-        <v>182</v>
-      </c>
-      <c r="J56" t="s">
-        <v>206</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="J56"/>
       <c r="K56"/>
       <c r="L56"/>
       <c r="M56"/>
@@ -4021,68 +3928,66 @@
       <c r="P56"/>
       <c r="Q56"/>
       <c r="R56"/>
-      <c r="S56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B57" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C57" s="2" t="n">
         <v>44075</v>
       </c>
       <c r="D57"/>
-      <c r="E57"/>
-      <c r="F57" t="s">
-        <v>207</v>
-      </c>
-      <c r="G57"/>
+      <c r="E57" t="s">
+        <v>203</v>
+      </c>
+      <c r="F57"/>
+      <c r="G57" t="s">
+        <v>177</v>
+      </c>
       <c r="H57" t="s">
-        <v>181</v>
+        <v>204</v>
       </c>
       <c r="I57" t="s">
-        <v>208</v>
-      </c>
-      <c r="J57" t="s">
-        <v>209</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="J57"/>
       <c r="K57"/>
       <c r="L57"/>
       <c r="M57"/>
       <c r="N57"/>
       <c r="O57"/>
       <c r="P57"/>
-      <c r="Q57"/>
-      <c r="R57" t="s">
-        <v>29</v>
-      </c>
-      <c r="S57"/>
+      <c r="Q57" t="s">
+        <v>27</v>
+      </c>
+      <c r="R57"/>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C58" s="2" t="n">
         <v>44012</v>
       </c>
       <c r="D58"/>
-      <c r="E58"/>
-      <c r="F58" t="s">
-        <v>210</v>
-      </c>
-      <c r="G58"/>
-      <c r="H58" t="s">
-        <v>34</v>
-      </c>
-      <c r="I58"/>
-      <c r="J58" t="s">
-        <v>211</v>
-      </c>
+      <c r="E58" t="s">
+        <v>206</v>
+      </c>
+      <c r="F58"/>
+      <c r="G58" t="s">
+        <v>32</v>
+      </c>
+      <c r="H58"/>
+      <c r="I58" t="s">
+        <v>207</v>
+      </c>
+      <c r="J58"/>
       <c r="K58"/>
       <c r="L58"/>
       <c r="M58"/>
@@ -4091,34 +3996,33 @@
       <c r="P58"/>
       <c r="Q58"/>
       <c r="R58"/>
-      <c r="S58"/>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B59" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C59" s="2" t="n">
         <v>44003</v>
       </c>
       <c r="D59"/>
-      <c r="E59"/>
-      <c r="F59" t="s">
-        <v>212</v>
-      </c>
-      <c r="G59"/>
+      <c r="E59" t="s">
+        <v>208</v>
+      </c>
+      <c r="F59"/>
+      <c r="G59" t="s">
+        <v>32</v>
+      </c>
       <c r="H59" t="s">
-        <v>34</v>
-      </c>
-      <c r="I59" t="s">
-        <v>213</v>
-      </c>
-      <c r="J59"/>
-      <c r="K59" t="s">
-        <v>214</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="I59"/>
+      <c r="J59" t="s">
+        <v>210</v>
+      </c>
+      <c r="K59"/>
       <c r="L59"/>
       <c r="M59"/>
       <c r="N59"/>
@@ -4126,29 +4030,28 @@
       <c r="P59"/>
       <c r="Q59"/>
       <c r="R59"/>
-      <c r="S59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C60" s="2" t="n">
         <v>43979</v>
       </c>
       <c r="D60"/>
-      <c r="E60"/>
-      <c r="F60" t="s">
-        <v>215</v>
-      </c>
+      <c r="E60" t="s">
+        <v>211</v>
+      </c>
+      <c r="F60"/>
       <c r="G60"/>
       <c r="H60"/>
-      <c r="I60"/>
-      <c r="J60" t="s">
-        <v>216</v>
-      </c>
+      <c r="I60" t="s">
+        <v>212</v>
+      </c>
+      <c r="J60"/>
       <c r="K60"/>
       <c r="L60"/>
       <c r="M60"/>
@@ -4157,33 +4060,32 @@
       <c r="P60"/>
       <c r="Q60"/>
       <c r="R60"/>
-      <c r="S60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B61" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C61" s="2" t="n">
         <v>43972</v>
       </c>
       <c r="D61"/>
-      <c r="E61"/>
-      <c r="F61" t="s">
-        <v>217</v>
-      </c>
-      <c r="G61"/>
+      <c r="E61" t="s">
+        <v>213</v>
+      </c>
+      <c r="F61"/>
+      <c r="G61" t="s">
+        <v>32</v>
+      </c>
       <c r="H61" t="s">
-        <v>34</v>
+        <v>209</v>
       </c>
       <c r="I61" t="s">
-        <v>213</v>
-      </c>
-      <c r="J61" t="s">
-        <v>218</v>
-      </c>
+        <v>214</v>
+      </c>
+      <c r="J61"/>
       <c r="K61"/>
       <c r="L61"/>
       <c r="M61"/>
@@ -4192,142 +4094,138 @@
       <c r="P61"/>
       <c r="Q61"/>
       <c r="R61"/>
-      <c r="S61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B62" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C62" s="2" t="n">
         <v>43971</v>
       </c>
       <c r="D62"/>
-      <c r="E62"/>
-      <c r="F62" t="s">
-        <v>219</v>
-      </c>
-      <c r="G62"/>
-      <c r="H62" t="s">
-        <v>220</v>
-      </c>
-      <c r="I62"/>
-      <c r="J62" t="s">
-        <v>221</v>
-      </c>
+      <c r="E62" t="s">
+        <v>215</v>
+      </c>
+      <c r="F62"/>
+      <c r="G62" t="s">
+        <v>216</v>
+      </c>
+      <c r="H62"/>
+      <c r="I62" t="s">
+        <v>217</v>
+      </c>
+      <c r="J62"/>
       <c r="K62"/>
       <c r="L62"/>
       <c r="M62"/>
       <c r="N62"/>
       <c r="O62"/>
       <c r="P62"/>
-      <c r="Q62"/>
-      <c r="R62" t="s">
-        <v>29</v>
-      </c>
-      <c r="S62"/>
+      <c r="Q62" t="s">
+        <v>27</v>
+      </c>
+      <c r="R62"/>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B63" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C63" s="2" t="n">
         <v>43946</v>
       </c>
       <c r="D63"/>
-      <c r="E63"/>
-      <c r="F63" t="s">
+      <c r="E63" t="s">
+        <v>215</v>
+      </c>
+      <c r="F63"/>
+      <c r="G63" t="s">
+        <v>218</v>
+      </c>
+      <c r="H63"/>
+      <c r="I63" t="s">
         <v>219</v>
       </c>
-      <c r="G63"/>
-      <c r="H63" t="s">
-        <v>222</v>
-      </c>
-      <c r="I63"/>
-      <c r="J63" t="s">
-        <v>223</v>
-      </c>
+      <c r="J63"/>
       <c r="K63"/>
       <c r="L63"/>
       <c r="M63"/>
-      <c r="N63"/>
-      <c r="O63" t="s">
-        <v>224</v>
-      </c>
+      <c r="N63" t="s">
+        <v>220</v>
+      </c>
+      <c r="O63"/>
       <c r="P63"/>
       <c r="Q63"/>
-      <c r="R63"/>
-      <c r="S63" t="s">
-        <v>29</v>
+      <c r="R63" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B64" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C64" s="2" t="n">
         <v>43943</v>
       </c>
       <c r="D64"/>
-      <c r="E64"/>
-      <c r="F64" t="s">
-        <v>225</v>
-      </c>
-      <c r="G64"/>
-      <c r="H64" t="s">
-        <v>226</v>
-      </c>
-      <c r="I64"/>
-      <c r="J64" t="s">
-        <v>227</v>
-      </c>
+      <c r="E64" t="s">
+        <v>221</v>
+      </c>
+      <c r="F64"/>
+      <c r="G64" t="s">
+        <v>222</v>
+      </c>
+      <c r="H64"/>
+      <c r="I64" t="s">
+        <v>223</v>
+      </c>
+      <c r="J64"/>
       <c r="K64"/>
       <c r="L64"/>
-      <c r="M64"/>
-      <c r="N64" t="s">
-        <v>228</v>
-      </c>
+      <c r="M64" t="s">
+        <v>224</v>
+      </c>
+      <c r="N64"/>
       <c r="O64"/>
       <c r="P64"/>
-      <c r="Q64"/>
-      <c r="R64" t="s">
-        <v>29</v>
-      </c>
-      <c r="S64"/>
+      <c r="Q64" t="s">
+        <v>27</v>
+      </c>
+      <c r="R64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C65" s="2" t="n">
         <v>43881</v>
       </c>
       <c r="D65"/>
-      <c r="E65"/>
-      <c r="F65" t="s">
-        <v>229</v>
-      </c>
-      <c r="G65"/>
+      <c r="E65" t="s">
+        <v>225</v>
+      </c>
+      <c r="F65"/>
+      <c r="G65" t="s">
+        <v>177</v>
+      </c>
       <c r="H65" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="I65" t="s">
-        <v>179</v>
-      </c>
-      <c r="J65" t="s">
-        <v>201</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="J65"/>
       <c r="K65"/>
       <c r="L65"/>
       <c r="M65"/>
@@ -4336,33 +4234,32 @@
       <c r="P65"/>
       <c r="Q65"/>
       <c r="R65"/>
-      <c r="S65"/>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B66" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C66" s="2" t="n">
         <v>43866</v>
       </c>
       <c r="D66"/>
-      <c r="E66"/>
-      <c r="F66" t="s">
-        <v>229</v>
-      </c>
-      <c r="G66"/>
+      <c r="E66" t="s">
+        <v>225</v>
+      </c>
+      <c r="F66"/>
+      <c r="G66" t="s">
+        <v>32</v>
+      </c>
       <c r="H66" t="s">
-        <v>34</v>
+        <v>226</v>
       </c>
       <c r="I66" t="s">
-        <v>230</v>
-      </c>
-      <c r="J66" t="s">
-        <v>231</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="J66"/>
       <c r="K66"/>
       <c r="L66"/>
       <c r="M66"/>
@@ -4371,33 +4268,32 @@
       <c r="P66"/>
       <c r="Q66"/>
       <c r="R66"/>
-      <c r="S66"/>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B67" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C67" s="2" t="n">
         <v>43773</v>
       </c>
       <c r="D67"/>
-      <c r="E67"/>
-      <c r="F67" t="s">
-        <v>232</v>
-      </c>
-      <c r="G67"/>
+      <c r="E67" t="s">
+        <v>228</v>
+      </c>
+      <c r="F67"/>
+      <c r="G67" t="s">
+        <v>32</v>
+      </c>
       <c r="H67" t="s">
-        <v>34</v>
+        <v>229</v>
       </c>
       <c r="I67" t="s">
-        <v>233</v>
-      </c>
-      <c r="J67" t="s">
-        <v>234</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="J67"/>
       <c r="K67"/>
       <c r="L67"/>
       <c r="M67"/>
@@ -4406,36 +4302,35 @@
       <c r="P67"/>
       <c r="Q67"/>
       <c r="R67"/>
-      <c r="S67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B68" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C68" s="2" t="n">
         <v>43741</v>
       </c>
       <c r="D68"/>
-      <c r="E68"/>
-      <c r="F68" t="s">
-        <v>235</v>
-      </c>
-      <c r="G68"/>
+      <c r="E68" t="s">
+        <v>231</v>
+      </c>
+      <c r="F68"/>
+      <c r="G68" t="s">
+        <v>32</v>
+      </c>
       <c r="H68" t="s">
-        <v>34</v>
+        <v>232</v>
       </c>
       <c r="I68" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="J68" t="s">
-        <v>237</v>
-      </c>
-      <c r="K68" t="s">
-        <v>238</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="K68"/>
       <c r="L68"/>
       <c r="M68"/>
       <c r="N68"/>
@@ -4443,73 +4338,71 @@
       <c r="P68"/>
       <c r="Q68"/>
       <c r="R68"/>
-      <c r="S68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B69" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C69" s="2" t="n">
         <v>43652</v>
       </c>
       <c r="D69"/>
-      <c r="E69"/>
-      <c r="F69" t="s">
-        <v>239</v>
-      </c>
-      <c r="G69"/>
-      <c r="H69" t="s">
-        <v>240</v>
-      </c>
-      <c r="I69"/>
+      <c r="E69" t="s">
+        <v>235</v>
+      </c>
+      <c r="F69"/>
+      <c r="G69" t="s">
+        <v>236</v>
+      </c>
+      <c r="H69"/>
+      <c r="I69" t="s">
+        <v>237</v>
+      </c>
       <c r="J69" t="s">
-        <v>241</v>
-      </c>
-      <c r="K69" t="s">
-        <v>242</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="K69"/>
       <c r="L69"/>
       <c r="M69"/>
       <c r="N69"/>
       <c r="O69"/>
       <c r="P69"/>
-      <c r="Q69"/>
-      <c r="R69" t="s">
-        <v>29</v>
-      </c>
-      <c r="S69"/>
+      <c r="Q69" t="s">
+        <v>27</v>
+      </c>
+      <c r="R69"/>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B70" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C70" s="2" t="n">
         <v>43622</v>
       </c>
       <c r="D70"/>
-      <c r="E70"/>
-      <c r="F70" t="s">
-        <v>243</v>
-      </c>
-      <c r="G70"/>
+      <c r="E70" t="s">
+        <v>239</v>
+      </c>
+      <c r="F70"/>
+      <c r="G70" t="s">
+        <v>32</v>
+      </c>
       <c r="H70" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="I70" t="s">
-        <v>179</v>
+        <v>240</v>
       </c>
       <c r="J70" t="s">
-        <v>244</v>
-      </c>
-      <c r="K70" t="s">
-        <v>245</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="K70"/>
       <c r="L70"/>
       <c r="M70"/>
       <c r="N70"/>
@@ -4517,33 +4410,32 @@
       <c r="P70"/>
       <c r="Q70"/>
       <c r="R70"/>
-      <c r="S70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B71" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C71" s="2" t="n">
         <v>43622</v>
       </c>
       <c r="D71"/>
-      <c r="E71"/>
-      <c r="F71" t="s">
-        <v>246</v>
-      </c>
-      <c r="G71"/>
+      <c r="E71" t="s">
+        <v>242</v>
+      </c>
+      <c r="F71"/>
+      <c r="G71" t="s">
+        <v>32</v>
+      </c>
       <c r="H71" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="I71" t="s">
-        <v>179</v>
-      </c>
-      <c r="J71" t="s">
-        <v>244</v>
-      </c>
+        <v>240</v>
+      </c>
+      <c r="J71"/>
       <c r="K71"/>
       <c r="L71"/>
       <c r="M71"/>
@@ -4552,33 +4444,32 @@
       <c r="P71"/>
       <c r="Q71"/>
       <c r="R71"/>
-      <c r="S71"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B72" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C72" s="2" t="n">
         <v>43607</v>
       </c>
       <c r="D72"/>
-      <c r="E72"/>
-      <c r="F72" t="s">
-        <v>247</v>
-      </c>
-      <c r="G72"/>
+      <c r="E72" t="s">
+        <v>243</v>
+      </c>
+      <c r="F72"/>
+      <c r="G72" t="s">
+        <v>32</v>
+      </c>
       <c r="H72" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="I72" t="s">
-        <v>179</v>
-      </c>
-      <c r="J72" t="s">
-        <v>248</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="J72"/>
       <c r="K72"/>
       <c r="L72"/>
       <c r="M72"/>
@@ -4587,69 +4478,67 @@
       <c r="P72"/>
       <c r="Q72"/>
       <c r="R72"/>
-      <c r="S72"/>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B73" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C73" s="2" t="n">
         <v>43592</v>
       </c>
       <c r="D73"/>
-      <c r="E73"/>
-      <c r="F73" t="s">
+      <c r="E73" t="s">
+        <v>242</v>
+      </c>
+      <c r="F73"/>
+      <c r="G73" t="s">
+        <v>245</v>
+      </c>
+      <c r="H73"/>
+      <c r="I73"/>
+      <c r="J73" t="s">
         <v>246</v>
       </c>
-      <c r="G73"/>
-      <c r="H73" t="s">
-        <v>249</v>
-      </c>
-      <c r="I73"/>
-      <c r="J73"/>
-      <c r="K73" t="s">
-        <v>250</v>
-      </c>
+      <c r="K73"/>
       <c r="L73"/>
       <c r="M73"/>
       <c r="N73"/>
       <c r="O73"/>
       <c r="P73"/>
       <c r="Q73"/>
-      <c r="R73"/>
-      <c r="S73" t="s">
-        <v>29</v>
+      <c r="R73" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B74" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C74" s="2" t="n">
         <v>43589</v>
       </c>
       <c r="D74"/>
-      <c r="E74"/>
-      <c r="F74" t="s">
-        <v>251</v>
-      </c>
-      <c r="G74"/>
-      <c r="H74" t="s">
-        <v>252</v>
-      </c>
-      <c r="I74"/>
+      <c r="E74" t="s">
+        <v>247</v>
+      </c>
+      <c r="F74"/>
+      <c r="G74" t="s">
+        <v>248</v>
+      </c>
+      <c r="H74"/>
+      <c r="I74" t="s">
+        <v>249</v>
+      </c>
       <c r="J74" t="s">
-        <v>253</v>
-      </c>
-      <c r="K74" t="s">
-        <v>250</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="K74"/>
       <c r="L74"/>
       <c r="M74"/>
       <c r="N74"/>
@@ -4657,33 +4546,32 @@
       <c r="P74"/>
       <c r="Q74"/>
       <c r="R74"/>
-      <c r="S74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B75" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C75" s="2" t="n">
         <v>43346</v>
       </c>
       <c r="D75"/>
-      <c r="E75"/>
-      <c r="F75" t="s">
-        <v>254</v>
-      </c>
-      <c r="G75"/>
+      <c r="E75" t="s">
+        <v>250</v>
+      </c>
+      <c r="F75"/>
+      <c r="G75" t="s">
+        <v>251</v>
+      </c>
       <c r="H75" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="I75" t="s">
-        <v>256</v>
-      </c>
-      <c r="J75" t="s">
-        <v>257</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="J75"/>
       <c r="K75"/>
       <c r="L75"/>
       <c r="M75"/>
@@ -4692,34 +4580,33 @@
       <c r="P75"/>
       <c r="Q75"/>
       <c r="R75"/>
-      <c r="S75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B76" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C76" s="2" t="n">
         <v>43281</v>
       </c>
       <c r="D76"/>
-      <c r="E76"/>
-      <c r="F76" t="s">
-        <v>258</v>
-      </c>
-      <c r="G76"/>
-      <c r="H76" t="s">
-        <v>259</v>
-      </c>
-      <c r="I76"/>
+      <c r="E76" t="s">
+        <v>254</v>
+      </c>
+      <c r="F76"/>
+      <c r="G76" t="s">
+        <v>255</v>
+      </c>
+      <c r="H76"/>
+      <c r="I76" t="s">
+        <v>256</v>
+      </c>
       <c r="J76" t="s">
-        <v>260</v>
-      </c>
-      <c r="K76" t="s">
-        <v>261</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="K76"/>
       <c r="L76"/>
       <c r="M76"/>
       <c r="N76"/>
@@ -4727,33 +4614,32 @@
       <c r="P76"/>
       <c r="Q76"/>
       <c r="R76"/>
-      <c r="S76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B77" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C77" s="2" t="n">
         <v>43206</v>
       </c>
       <c r="D77"/>
-      <c r="E77"/>
-      <c r="F77" t="s">
-        <v>262</v>
-      </c>
-      <c r="G77"/>
+      <c r="E77" t="s">
+        <v>258</v>
+      </c>
+      <c r="F77"/>
+      <c r="G77" t="s">
+        <v>32</v>
+      </c>
       <c r="H77" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="I77" t="s">
-        <v>179</v>
-      </c>
-      <c r="J77" t="s">
-        <v>180</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="J77"/>
       <c r="K77"/>
       <c r="L77"/>
       <c r="M77"/>
@@ -4762,33 +4648,32 @@
       <c r="P77"/>
       <c r="Q77"/>
       <c r="R77"/>
-      <c r="S77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B78" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C78" s="2" t="n">
         <v>42917</v>
       </c>
       <c r="D78"/>
-      <c r="E78"/>
-      <c r="F78" t="s">
-        <v>263</v>
-      </c>
-      <c r="G78"/>
+      <c r="E78" t="s">
+        <v>259</v>
+      </c>
+      <c r="F78"/>
+      <c r="G78" t="s">
+        <v>32</v>
+      </c>
       <c r="H78" t="s">
-        <v>34</v>
+        <v>194</v>
       </c>
       <c r="I78" t="s">
-        <v>198</v>
-      </c>
-      <c r="J78" t="s">
-        <v>264</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="J78"/>
       <c r="K78"/>
       <c r="L78"/>
       <c r="M78"/>
@@ -4797,33 +4682,32 @@
       <c r="P78"/>
       <c r="Q78"/>
       <c r="R78"/>
-      <c r="S78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B79" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C79" s="2" t="n">
         <v>42895</v>
       </c>
       <c r="D79"/>
-      <c r="E79"/>
-      <c r="F79" t="s">
-        <v>265</v>
-      </c>
-      <c r="G79"/>
+      <c r="E79" t="s">
+        <v>261</v>
+      </c>
+      <c r="F79"/>
+      <c r="G79" t="s">
+        <v>32</v>
+      </c>
       <c r="H79" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="I79" t="s">
-        <v>179</v>
-      </c>
-      <c r="J79" t="s">
-        <v>266</v>
-      </c>
+        <v>262</v>
+      </c>
+      <c r="J79"/>
       <c r="K79"/>
       <c r="L79"/>
       <c r="M79"/>
@@ -4832,33 +4716,32 @@
       <c r="P79"/>
       <c r="Q79"/>
       <c r="R79"/>
-      <c r="S79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B80" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C80" s="2" t="n">
         <v>42822</v>
       </c>
       <c r="D80"/>
-      <c r="E80"/>
-      <c r="F80" t="s">
-        <v>267</v>
-      </c>
-      <c r="G80"/>
+      <c r="E80" t="s">
+        <v>263</v>
+      </c>
+      <c r="F80"/>
+      <c r="G80" t="s">
+        <v>32</v>
+      </c>
       <c r="H80" t="s">
-        <v>34</v>
+        <v>175</v>
       </c>
       <c r="I80" t="s">
-        <v>179</v>
-      </c>
-      <c r="J80" t="s">
-        <v>268</v>
-      </c>
+        <v>264</v>
+      </c>
+      <c r="J80"/>
       <c r="K80"/>
       <c r="L80"/>
       <c r="M80"/>
@@ -4867,33 +4750,32 @@
       <c r="P80"/>
       <c r="Q80"/>
       <c r="R80"/>
-      <c r="S80"/>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B81" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C81" s="2" t="n">
         <v>42997</v>
       </c>
       <c r="D81"/>
-      <c r="E81"/>
-      <c r="F81" t="s">
-        <v>269</v>
-      </c>
-      <c r="G81"/>
+      <c r="E81" t="s">
+        <v>265</v>
+      </c>
+      <c r="F81"/>
+      <c r="G81" t="s">
+        <v>32</v>
+      </c>
       <c r="H81" t="s">
-        <v>34</v>
+        <v>266</v>
       </c>
       <c r="I81" t="s">
-        <v>270</v>
-      </c>
-      <c r="J81" t="s">
-        <v>271</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="J81"/>
       <c r="K81"/>
       <c r="L81"/>
       <c r="M81"/>
@@ -4902,34 +4784,33 @@
       <c r="P81"/>
       <c r="Q81"/>
       <c r="R81"/>
-      <c r="S81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B82" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C82" s="2" t="n">
         <v>43073</v>
       </c>
       <c r="D82"/>
-      <c r="E82"/>
-      <c r="F82" t="s">
-        <v>272</v>
-      </c>
-      <c r="G82"/>
-      <c r="H82" t="s">
-        <v>273</v>
-      </c>
-      <c r="I82"/>
+      <c r="E82" t="s">
+        <v>268</v>
+      </c>
+      <c r="F82"/>
+      <c r="G82" t="s">
+        <v>269</v>
+      </c>
+      <c r="H82"/>
+      <c r="I82" t="s">
+        <v>270</v>
+      </c>
       <c r="J82" t="s">
-        <v>274</v>
-      </c>
-      <c r="K82" t="s">
-        <v>275</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="K82"/>
       <c r="L82"/>
       <c r="M82"/>
       <c r="N82"/>
@@ -4937,32 +4818,31 @@
       <c r="P82"/>
       <c r="Q82"/>
       <c r="R82"/>
-      <c r="S82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B83" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C83" s="2" t="n">
         <v>42807</v>
       </c>
       <c r="D83"/>
-      <c r="E83"/>
-      <c r="F83" t="s">
-        <v>276</v>
-      </c>
-      <c r="G83"/>
-      <c r="H83" t="s">
-        <v>277</v>
-      </c>
+      <c r="E83" t="s">
+        <v>272</v>
+      </c>
+      <c r="F83"/>
+      <c r="G83" t="s">
+        <v>273</v>
+      </c>
+      <c r="H83"/>
       <c r="I83"/>
-      <c r="J83"/>
-      <c r="K83" t="s">
-        <v>278</v>
-      </c>
+      <c r="J83" t="s">
+        <v>274</v>
+      </c>
+      <c r="K83"/>
       <c r="L83"/>
       <c r="M83"/>
       <c r="N83"/>
@@ -4970,33 +4850,32 @@
       <c r="P83"/>
       <c r="Q83"/>
       <c r="R83"/>
-      <c r="S83"/>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B84" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C84" s="2" t="n">
         <v>42271</v>
       </c>
       <c r="D84"/>
-      <c r="E84"/>
-      <c r="F84" t="s">
-        <v>280</v>
-      </c>
-      <c r="G84"/>
+      <c r="E84" t="s">
+        <v>276</v>
+      </c>
+      <c r="F84"/>
+      <c r="G84" t="s">
+        <v>43</v>
+      </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>277</v>
       </c>
       <c r="I84" t="s">
-        <v>281</v>
-      </c>
-      <c r="J84" t="s">
-        <v>282</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="J84"/>
       <c r="K84"/>
       <c r="L84"/>
       <c r="M84"/>
@@ -5005,31 +4884,30 @@
       <c r="P84"/>
       <c r="Q84"/>
       <c r="R84"/>
-      <c r="S84"/>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B85" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C85" s="2" t="n">
         <v>41850</v>
       </c>
       <c r="D85"/>
-      <c r="E85"/>
-      <c r="F85" t="s">
-        <v>284</v>
-      </c>
-      <c r="G85"/>
-      <c r="H85" t="s">
-        <v>285</v>
-      </c>
-      <c r="I85"/>
-      <c r="J85" t="s">
-        <v>286</v>
-      </c>
+      <c r="E85" t="s">
+        <v>280</v>
+      </c>
+      <c r="F85"/>
+      <c r="G85" t="s">
+        <v>281</v>
+      </c>
+      <c r="H85"/>
+      <c r="I85" t="s">
+        <v>282</v>
+      </c>
+      <c r="J85"/>
       <c r="K85"/>
       <c r="L85"/>
       <c r="M85"/>
@@ -5038,31 +4916,30 @@
       <c r="P85"/>
       <c r="Q85"/>
       <c r="R85"/>
-      <c r="S85"/>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B86" t="s">
-        <v>144</v>
+        <v>283</v>
       </c>
       <c r="C86" s="2" t="n">
         <v>41207</v>
       </c>
       <c r="D86"/>
-      <c r="E86"/>
-      <c r="F86" t="s">
-        <v>287</v>
-      </c>
-      <c r="G86"/>
-      <c r="H86" t="s">
-        <v>288</v>
-      </c>
-      <c r="I86"/>
-      <c r="J86" t="s">
-        <v>289</v>
-      </c>
+      <c r="E86" t="s">
+        <v>284</v>
+      </c>
+      <c r="F86"/>
+      <c r="G86" t="s">
+        <v>285</v>
+      </c>
+      <c r="H86"/>
+      <c r="I86" t="s">
+        <v>286</v>
+      </c>
+      <c r="J86"/>
       <c r="K86"/>
       <c r="L86"/>
       <c r="M86"/>
@@ -5071,33 +4948,32 @@
       <c r="P86"/>
       <c r="Q86"/>
       <c r="R86"/>
-      <c r="S86"/>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B87" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C87" s="2" t="n">
         <v>43269</v>
       </c>
       <c r="D87"/>
-      <c r="E87"/>
-      <c r="F87" t="s">
-        <v>291</v>
-      </c>
-      <c r="G87"/>
+      <c r="E87" t="s">
+        <v>288</v>
+      </c>
+      <c r="F87"/>
+      <c r="G87" t="s">
+        <v>32</v>
+      </c>
       <c r="H87" t="s">
-        <v>34</v>
+        <v>226</v>
       </c>
       <c r="I87" t="s">
-        <v>230</v>
-      </c>
-      <c r="J87" t="s">
-        <v>292</v>
-      </c>
+        <v>289</v>
+      </c>
+      <c r="J87"/>
       <c r="K87"/>
       <c r="L87"/>
       <c r="M87"/>
@@ -5106,34 +4982,33 @@
       <c r="P87"/>
       <c r="Q87"/>
       <c r="R87"/>
-      <c r="S87"/>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B88" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C88" s="2" t="n">
         <v>43211</v>
       </c>
       <c r="D88"/>
-      <c r="E88"/>
-      <c r="F88" t="s">
+      <c r="E88" t="s">
+        <v>290</v>
+      </c>
+      <c r="F88"/>
+      <c r="G88" t="s">
+        <v>291</v>
+      </c>
+      <c r="H88"/>
+      <c r="I88" t="s">
+        <v>292</v>
+      </c>
+      <c r="J88" t="s">
         <v>293</v>
       </c>
-      <c r="G88"/>
-      <c r="H88" t="s">
-        <v>294</v>
-      </c>
-      <c r="I88"/>
-      <c r="J88" t="s">
-        <v>295</v>
-      </c>
-      <c r="K88" t="s">
-        <v>296</v>
-      </c>
+      <c r="K88"/>
       <c r="L88"/>
       <c r="M88"/>
       <c r="N88"/>
@@ -5141,32 +5016,31 @@
       <c r="P88"/>
       <c r="Q88"/>
       <c r="R88"/>
-      <c r="S88"/>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B89" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C89" s="2" t="n">
         <v>42943</v>
       </c>
       <c r="D89"/>
-      <c r="E89"/>
-      <c r="F89" t="s">
-        <v>297</v>
-      </c>
-      <c r="G89"/>
-      <c r="H89" t="s">
-        <v>298</v>
-      </c>
+      <c r="E89" t="s">
+        <v>294</v>
+      </c>
+      <c r="F89"/>
+      <c r="G89" t="s">
+        <v>295</v>
+      </c>
+      <c r="H89"/>
       <c r="I89"/>
-      <c r="J89"/>
-      <c r="K89" t="s">
-        <v>299</v>
-      </c>
+      <c r="J89" t="s">
+        <v>296</v>
+      </c>
+      <c r="K89"/>
       <c r="L89"/>
       <c r="M89"/>
       <c r="N89"/>
@@ -5174,33 +5048,32 @@
       <c r="P89"/>
       <c r="Q89"/>
       <c r="R89"/>
-      <c r="S89"/>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B90" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C90" s="2" t="n">
         <v>42905</v>
       </c>
       <c r="D90"/>
-      <c r="E90"/>
-      <c r="F90" t="s">
-        <v>300</v>
-      </c>
-      <c r="G90"/>
+      <c r="E90" t="s">
+        <v>297</v>
+      </c>
+      <c r="F90"/>
+      <c r="G90" t="s">
+        <v>32</v>
+      </c>
       <c r="H90" t="s">
-        <v>34</v>
+        <v>226</v>
       </c>
       <c r="I90" t="s">
-        <v>230</v>
-      </c>
-      <c r="J90" t="s">
-        <v>301</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="J90"/>
       <c r="K90"/>
       <c r="L90"/>
       <c r="M90"/>
@@ -5209,34 +5082,33 @@
       <c r="P90"/>
       <c r="Q90"/>
       <c r="R90"/>
-      <c r="S90"/>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B91" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C91" s="2" t="n">
         <v>42863</v>
       </c>
       <c r="D91"/>
-      <c r="E91"/>
-      <c r="F91" t="s">
+      <c r="E91" t="s">
+        <v>299</v>
+      </c>
+      <c r="F91"/>
+      <c r="G91" t="s">
+        <v>300</v>
+      </c>
+      <c r="H91"/>
+      <c r="I91" t="s">
+        <v>301</v>
+      </c>
+      <c r="J91" t="s">
         <v>302</v>
       </c>
-      <c r="G91"/>
-      <c r="H91" t="s">
-        <v>303</v>
-      </c>
-      <c r="I91"/>
-      <c r="J91" t="s">
-        <v>304</v>
-      </c>
-      <c r="K91" t="s">
-        <v>305</v>
-      </c>
+      <c r="K91"/>
       <c r="L91"/>
       <c r="M91"/>
       <c r="N91"/>
@@ -5244,34 +5116,33 @@
       <c r="P91"/>
       <c r="Q91"/>
       <c r="R91"/>
-      <c r="S91"/>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B92" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C92" s="2" t="n">
         <v>41812</v>
       </c>
       <c r="D92"/>
-      <c r="E92"/>
-      <c r="F92" t="s">
+      <c r="E92" t="s">
+        <v>303</v>
+      </c>
+      <c r="F92"/>
+      <c r="G92" t="s">
+        <v>304</v>
+      </c>
+      <c r="H92"/>
+      <c r="I92" t="s">
+        <v>305</v>
+      </c>
+      <c r="J92" t="s">
         <v>306</v>
       </c>
-      <c r="G92"/>
-      <c r="H92" t="s">
-        <v>307</v>
-      </c>
-      <c r="I92"/>
-      <c r="J92" t="s">
-        <v>308</v>
-      </c>
-      <c r="K92" t="s">
-        <v>309</v>
-      </c>
+      <c r="K92"/>
       <c r="L92"/>
       <c r="M92"/>
       <c r="N92"/>
@@ -5279,32 +5150,31 @@
       <c r="P92"/>
       <c r="Q92"/>
       <c r="R92"/>
-      <c r="S92"/>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="B93" t="s">
-        <v>51</v>
+        <v>307</v>
       </c>
       <c r="C93" s="2" t="n">
         <v>40744</v>
       </c>
       <c r="D93"/>
-      <c r="E93"/>
-      <c r="F93" t="s">
+      <c r="E93" t="s">
+        <v>308</v>
+      </c>
+      <c r="F93"/>
+      <c r="G93" t="s">
+        <v>309</v>
+      </c>
+      <c r="H93"/>
+      <c r="I93"/>
+      <c r="J93" t="s">
         <v>310</v>
       </c>
-      <c r="G93"/>
-      <c r="H93" t="s">
-        <v>311</v>
-      </c>
-      <c r="I93"/>
-      <c r="J93"/>
-      <c r="K93" t="s">
-        <v>312</v>
-      </c>
+      <c r="K93"/>
       <c r="L93"/>
       <c r="M93"/>
       <c r="N93"/>
@@ -5312,29 +5182,28 @@
       <c r="P93"/>
       <c r="Q93"/>
       <c r="R93"/>
-      <c r="S93"/>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B94" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C94" s="2" t="n">
         <v>43142</v>
       </c>
       <c r="D94"/>
-      <c r="E94"/>
-      <c r="F94" t="s">
-        <v>314</v>
-      </c>
+      <c r="E94" t="s">
+        <v>312</v>
+      </c>
+      <c r="F94"/>
       <c r="G94"/>
       <c r="H94"/>
-      <c r="I94"/>
-      <c r="J94" t="s">
-        <v>315</v>
-      </c>
+      <c r="I94" t="s">
+        <v>313</v>
+      </c>
+      <c r="J94"/>
       <c r="K94"/>
       <c r="L94"/>
       <c r="M94"/>
@@ -5343,33 +5212,30 @@
       <c r="P94"/>
       <c r="Q94"/>
       <c r="R94"/>
-      <c r="S94"/>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B95" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C95" s="2" t="n">
         <v>42767</v>
       </c>
       <c r="D95" t="s">
-        <v>73</v>
+        <v>314</v>
       </c>
       <c r="E95" t="s">
-        <v>316</v>
-      </c>
-      <c r="F95" t="s">
-        <v>317</v>
-      </c>
+        <v>315</v>
+      </c>
+      <c r="F95"/>
       <c r="G95"/>
       <c r="H95"/>
-      <c r="I95"/>
-      <c r="J95" t="s">
-        <v>318</v>
-      </c>
+      <c r="I95" t="s">
+        <v>316</v>
+      </c>
+      <c r="J95"/>
       <c r="K95"/>
       <c r="L95"/>
       <c r="M95"/>
@@ -5378,31 +5244,30 @@
       <c r="P95"/>
       <c r="Q95"/>
       <c r="R95"/>
-      <c r="S95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B96" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="C96" s="2" t="n">
         <v>44313</v>
       </c>
       <c r="D96"/>
-      <c r="E96"/>
+      <c r="E96" t="s">
+        <v>318</v>
+      </c>
       <c r="F96" t="s">
+        <v>319</v>
+      </c>
+      <c r="G96"/>
+      <c r="H96"/>
+      <c r="I96" t="s">
         <v>320</v>
       </c>
-      <c r="G96" t="s">
-        <v>321</v>
-      </c>
-      <c r="H96"/>
-      <c r="I96"/>
-      <c r="J96" t="s">
-        <v>322</v>
-      </c>
+      <c r="J96"/>
       <c r="K96"/>
       <c r="L96"/>
       <c r="M96"/>
@@ -5411,29 +5276,28 @@
       <c r="P96"/>
       <c r="Q96"/>
       <c r="R96"/>
-      <c r="S96"/>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B97" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C97" s="2" t="n">
         <v>43396</v>
       </c>
       <c r="D97"/>
-      <c r="E97"/>
-      <c r="F97" t="s">
-        <v>323</v>
-      </c>
+      <c r="E97" t="s">
+        <v>321</v>
+      </c>
+      <c r="F97"/>
       <c r="G97"/>
       <c r="H97"/>
-      <c r="I97"/>
-      <c r="J97" t="s">
-        <v>324</v>
-      </c>
+      <c r="I97" t="s">
+        <v>322</v>
+      </c>
+      <c r="J97"/>
       <c r="K97"/>
       <c r="L97"/>
       <c r="M97"/>
@@ -5442,33 +5306,30 @@
       <c r="P97"/>
       <c r="Q97"/>
       <c r="R97"/>
-      <c r="S97"/>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B98" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C98" s="2" t="n">
         <v>44013</v>
       </c>
       <c r="D98" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E98" t="s">
-        <v>21</v>
-      </c>
-      <c r="F98" t="s">
-        <v>327</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="F98"/>
       <c r="G98"/>
       <c r="H98"/>
-      <c r="I98"/>
-      <c r="J98" t="s">
-        <v>328</v>
-      </c>
+      <c r="I98" t="s">
+        <v>326</v>
+      </c>
+      <c r="J98"/>
       <c r="K98"/>
       <c r="L98"/>
       <c r="M98"/>
@@ -5477,36 +5338,33 @@
       <c r="P98"/>
       <c r="Q98"/>
       <c r="R98"/>
-      <c r="S98"/>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B99" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C99" s="2" t="n">
         <v>43862</v>
       </c>
       <c r="D99" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E99" t="s">
-        <v>21</v>
-      </c>
-      <c r="F99" t="s">
-        <v>330</v>
-      </c>
+        <v>328</v>
+      </c>
+      <c r="F99"/>
       <c r="G99"/>
       <c r="H99"/>
-      <c r="I99"/>
+      <c r="I99" t="s">
+        <v>329</v>
+      </c>
       <c r="J99" t="s">
-        <v>331</v>
-      </c>
-      <c r="K99" t="s">
-        <v>332</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="K99"/>
       <c r="L99"/>
       <c r="M99"/>
       <c r="N99"/>
@@ -5514,36 +5372,33 @@
       <c r="P99"/>
       <c r="Q99"/>
       <c r="R99"/>
-      <c r="S99"/>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B100" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C100" s="2" t="n">
         <v>43739</v>
       </c>
       <c r="D100" t="s">
-        <v>57</v>
+        <v>115</v>
       </c>
       <c r="E100" t="s">
-        <v>119</v>
-      </c>
-      <c r="F100" t="s">
-        <v>333</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="F100"/>
       <c r="G100"/>
       <c r="H100"/>
-      <c r="I100"/>
+      <c r="I100" t="s">
+        <v>332</v>
+      </c>
       <c r="J100" t="s">
-        <v>334</v>
-      </c>
-      <c r="K100" t="s">
-        <v>335</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="K100"/>
       <c r="L100"/>
       <c r="M100"/>
       <c r="N100"/>
@@ -5551,73 +5406,69 @@
       <c r="P100"/>
       <c r="Q100"/>
       <c r="R100"/>
-      <c r="S100"/>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B101" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C101" s="2" t="n">
         <v>43537</v>
       </c>
       <c r="D101"/>
-      <c r="E101"/>
-      <c r="F101" t="s">
-        <v>336</v>
-      </c>
+      <c r="E101" t="s">
+        <v>334</v>
+      </c>
+      <c r="F101"/>
       <c r="G101"/>
       <c r="H101"/>
-      <c r="I101"/>
+      <c r="I101" t="s">
+        <v>335</v>
+      </c>
       <c r="J101" t="s">
-        <v>337</v>
-      </c>
-      <c r="K101" t="s">
-        <v>338</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="K101"/>
       <c r="L101"/>
       <c r="M101"/>
       <c r="N101"/>
-      <c r="O101"/>
+      <c r="O101" t="s">
+        <v>110</v>
+      </c>
       <c r="P101" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q101" t="s">
-        <v>114</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="Q101"/>
       <c r="R101"/>
-      <c r="S101"/>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B102" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C102" s="2" t="n">
         <v>42917</v>
       </c>
       <c r="D102" t="s">
-        <v>63</v>
+        <v>338</v>
       </c>
       <c r="E102" t="s">
-        <v>340</v>
-      </c>
-      <c r="F102" t="s">
-        <v>341</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="F102"/>
       <c r="G102"/>
       <c r="H102"/>
-      <c r="I102"/>
+      <c r="I102" t="s">
+        <v>340</v>
+      </c>
       <c r="J102" t="s">
-        <v>342</v>
-      </c>
-      <c r="K102" t="s">
-        <v>343</v>
-      </c>
+        <v>341</v>
+      </c>
+      <c r="K102"/>
       <c r="L102"/>
       <c r="M102"/>
       <c r="N102"/>
@@ -5625,33 +5476,30 @@
       <c r="P102"/>
       <c r="Q102"/>
       <c r="R102"/>
-      <c r="S102"/>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B103" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C103" s="2" t="n">
         <v>42856</v>
       </c>
       <c r="D103" t="s">
-        <v>63</v>
+        <v>342</v>
       </c>
       <c r="E103" t="s">
-        <v>344</v>
-      </c>
-      <c r="F103" t="s">
-        <v>345</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="F103"/>
       <c r="G103"/>
       <c r="H103"/>
-      <c r="I103"/>
-      <c r="J103" t="s">
-        <v>75</v>
-      </c>
+      <c r="I103" t="s">
+        <v>70</v>
+      </c>
+      <c r="J103"/>
       <c r="K103"/>
       <c r="L103"/>
       <c r="M103"/>
@@ -5660,36 +5508,33 @@
       <c r="P103"/>
       <c r="Q103"/>
       <c r="R103"/>
-      <c r="S103"/>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B104" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C104" s="2" t="n">
         <v>41548</v>
       </c>
       <c r="D104" t="s">
-        <v>44</v>
+        <v>345</v>
       </c>
       <c r="E104" t="s">
-        <v>347</v>
-      </c>
-      <c r="F104" t="s">
-        <v>348</v>
-      </c>
+        <v>346</v>
+      </c>
+      <c r="F104"/>
       <c r="G104"/>
       <c r="H104"/>
-      <c r="I104"/>
+      <c r="I104" t="s">
+        <v>347</v>
+      </c>
       <c r="J104" t="s">
-        <v>349</v>
-      </c>
-      <c r="K104" t="s">
-        <v>350</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="K104"/>
       <c r="L104"/>
       <c r="M104"/>
       <c r="N104"/>
@@ -5697,26 +5542,25 @@
       <c r="P104"/>
       <c r="Q104"/>
       <c r="R104"/>
-      <c r="S104"/>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B105"/>
       <c r="C105" s="2"/>
       <c r="D105"/>
-      <c r="E105"/>
-      <c r="F105" t="s">
-        <v>352</v>
-      </c>
+      <c r="E105" t="s">
+        <v>350</v>
+      </c>
+      <c r="F105"/>
       <c r="G105"/>
       <c r="H105"/>
       <c r="I105"/>
-      <c r="J105"/>
-      <c r="K105" t="s">
-        <v>353</v>
-      </c>
+      <c r="J105" t="s">
+        <v>351</v>
+      </c>
+      <c r="K105"/>
       <c r="L105"/>
       <c r="M105"/>
       <c r="N105"/>
@@ -5724,26 +5568,25 @@
       <c r="P105"/>
       <c r="Q105"/>
       <c r="R105"/>
-      <c r="S105"/>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B106"/>
       <c r="C106" s="2"/>
       <c r="D106"/>
-      <c r="E106"/>
-      <c r="F106" t="s">
-        <v>354</v>
-      </c>
+      <c r="E106" t="s">
+        <v>352</v>
+      </c>
+      <c r="F106"/>
       <c r="G106"/>
       <c r="H106"/>
       <c r="I106"/>
-      <c r="J106"/>
-      <c r="K106" t="s">
-        <v>355</v>
-      </c>
+      <c r="J106" t="s">
+        <v>353</v>
+      </c>
+      <c r="K106"/>
       <c r="L106"/>
       <c r="M106"/>
       <c r="N106"/>
@@ -5751,26 +5594,25 @@
       <c r="P106"/>
       <c r="Q106"/>
       <c r="R106"/>
-      <c r="S106"/>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B107"/>
       <c r="C107" s="2"/>
       <c r="D107"/>
-      <c r="E107"/>
-      <c r="F107" t="s">
-        <v>356</v>
-      </c>
+      <c r="E107" t="s">
+        <v>354</v>
+      </c>
+      <c r="F107"/>
       <c r="G107"/>
       <c r="H107"/>
       <c r="I107"/>
-      <c r="J107"/>
-      <c r="K107" t="s">
-        <v>357</v>
-      </c>
+      <c r="J107" t="s">
+        <v>355</v>
+      </c>
+      <c r="K107"/>
       <c r="L107"/>
       <c r="M107"/>
       <c r="N107"/>
@@ -5778,36 +5620,33 @@
       <c r="P107"/>
       <c r="Q107"/>
       <c r="R107"/>
-      <c r="S107"/>
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B108" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C108" s="2" t="n">
         <v>42767</v>
       </c>
       <c r="D108" t="s">
-        <v>63</v>
+        <v>338</v>
       </c>
       <c r="E108" t="s">
-        <v>340</v>
-      </c>
-      <c r="F108" t="s">
-        <v>359</v>
-      </c>
+        <v>357</v>
+      </c>
+      <c r="F108"/>
       <c r="G108"/>
       <c r="H108"/>
-      <c r="I108"/>
+      <c r="I108" t="s">
+        <v>128</v>
+      </c>
       <c r="J108" t="s">
-        <v>132</v>
-      </c>
-      <c r="K108" t="s">
-        <v>360</v>
-      </c>
+        <v>358</v>
+      </c>
+      <c r="K108"/>
       <c r="L108"/>
       <c r="M108"/>
       <c r="N108"/>
@@ -5815,36 +5654,33 @@
       <c r="P108"/>
       <c r="Q108"/>
       <c r="R108"/>
-      <c r="S108"/>
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B109" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C109" s="2" t="n">
         <v>42855</v>
       </c>
       <c r="D109" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E109" t="s">
-        <v>21</v>
-      </c>
-      <c r="F109" t="s">
-        <v>362</v>
-      </c>
+        <v>360</v>
+      </c>
+      <c r="F109"/>
       <c r="G109"/>
       <c r="H109"/>
-      <c r="I109"/>
+      <c r="I109" t="s">
+        <v>361</v>
+      </c>
       <c r="J109" t="s">
-        <v>363</v>
-      </c>
-      <c r="K109" t="s">
-        <v>364</v>
-      </c>
+        <v>362</v>
+      </c>
+      <c r="K109"/>
       <c r="L109"/>
       <c r="M109"/>
       <c r="N109"/>
@@ -5852,36 +5688,33 @@
       <c r="P109"/>
       <c r="Q109"/>
       <c r="R109"/>
-      <c r="S109"/>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B110" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="C110" s="2" t="n">
         <v>41548</v>
       </c>
       <c r="D110" t="s">
-        <v>44</v>
+        <v>363</v>
       </c>
       <c r="E110" t="s">
-        <v>365</v>
-      </c>
-      <c r="F110" t="s">
-        <v>366</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="F110"/>
       <c r="G110"/>
       <c r="H110"/>
-      <c r="I110"/>
+      <c r="I110" t="s">
+        <v>365</v>
+      </c>
       <c r="J110" t="s">
-        <v>367</v>
-      </c>
-      <c r="K110" t="s">
-        <v>368</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="K110"/>
       <c r="L110"/>
       <c r="M110"/>
       <c r="N110"/>
@@ -5889,33 +5722,30 @@
       <c r="P110"/>
       <c r="Q110"/>
       <c r="R110"/>
-      <c r="S110"/>
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B111" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C111" s="2" t="n">
         <v>42767</v>
       </c>
       <c r="D111" t="s">
-        <v>63</v>
+        <v>338</v>
       </c>
       <c r="E111" t="s">
-        <v>340</v>
-      </c>
-      <c r="F111" t="s">
-        <v>369</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="F111"/>
       <c r="G111"/>
       <c r="H111"/>
-      <c r="I111"/>
-      <c r="J111" t="s">
-        <v>370</v>
-      </c>
+      <c r="I111" t="s">
+        <v>368</v>
+      </c>
+      <c r="J111"/>
       <c r="K111"/>
       <c r="L111"/>
       <c r="M111"/>
@@ -5924,33 +5754,30 @@
       <c r="P111"/>
       <c r="Q111"/>
       <c r="R111"/>
-      <c r="S111"/>
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B112" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C112" s="2" t="n">
         <v>42736</v>
       </c>
       <c r="D112" t="s">
-        <v>73</v>
+        <v>369</v>
       </c>
       <c r="E112" t="s">
-        <v>371</v>
-      </c>
-      <c r="F112" t="s">
-        <v>372</v>
-      </c>
+        <v>370</v>
+      </c>
+      <c r="F112"/>
       <c r="G112"/>
       <c r="H112"/>
-      <c r="I112"/>
-      <c r="J112" t="s">
-        <v>373</v>
-      </c>
+      <c r="I112" t="s">
+        <v>371</v>
+      </c>
+      <c r="J112"/>
       <c r="K112"/>
       <c r="L112"/>
       <c r="M112"/>
@@ -5959,145 +5786,137 @@
       <c r="P112"/>
       <c r="Q112"/>
       <c r="R112"/>
-      <c r="S112"/>
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B113" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="C113" s="2" t="n">
         <v>44462</v>
       </c>
       <c r="D113"/>
-      <c r="E113"/>
-      <c r="F113" t="s">
-        <v>375</v>
-      </c>
+      <c r="E113" t="s">
+        <v>373</v>
+      </c>
+      <c r="F113"/>
       <c r="G113"/>
       <c r="H113"/>
-      <c r="I113"/>
+      <c r="I113" t="s">
+        <v>374</v>
+      </c>
       <c r="J113" t="s">
-        <v>376</v>
-      </c>
-      <c r="K113" t="s">
-        <v>377</v>
-      </c>
+        <v>375</v>
+      </c>
+      <c r="K113"/>
       <c r="L113"/>
       <c r="M113"/>
       <c r="N113"/>
       <c r="O113"/>
       <c r="P113"/>
-      <c r="Q113"/>
-      <c r="R113" t="s">
-        <v>29</v>
-      </c>
-      <c r="S113"/>
+      <c r="Q113" t="s">
+        <v>27</v>
+      </c>
+      <c r="R113"/>
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B114" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C114" s="2" t="n">
         <v>43862</v>
       </c>
       <c r="D114" t="s">
-        <v>57</v>
+        <v>376</v>
       </c>
       <c r="E114" t="s">
-        <v>378</v>
-      </c>
-      <c r="F114" t="s">
-        <v>379</v>
-      </c>
+        <v>377</v>
+      </c>
+      <c r="F114"/>
       <c r="G114"/>
       <c r="H114"/>
-      <c r="I114"/>
+      <c r="I114" t="s">
+        <v>378</v>
+      </c>
       <c r="J114" t="s">
-        <v>380</v>
-      </c>
-      <c r="K114" t="s">
-        <v>381</v>
-      </c>
+        <v>379</v>
+      </c>
+      <c r="K114"/>
       <c r="L114"/>
       <c r="M114"/>
       <c r="N114"/>
       <c r="O114"/>
       <c r="P114"/>
-      <c r="Q114"/>
-      <c r="R114" t="s">
-        <v>29</v>
-      </c>
-      <c r="S114"/>
+      <c r="Q114" t="s">
+        <v>27</v>
+      </c>
+      <c r="R114"/>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B115" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C115" s="2" t="n">
         <v>43537</v>
       </c>
       <c r="D115"/>
-      <c r="E115"/>
-      <c r="F115" t="s">
-        <v>382</v>
-      </c>
+      <c r="E115" t="s">
+        <v>380</v>
+      </c>
+      <c r="F115"/>
       <c r="G115"/>
       <c r="H115"/>
-      <c r="I115"/>
+      <c r="I115" t="s">
+        <v>381</v>
+      </c>
       <c r="J115" t="s">
-        <v>383</v>
-      </c>
-      <c r="K115" t="s">
-        <v>384</v>
-      </c>
+        <v>382</v>
+      </c>
+      <c r="K115"/>
       <c r="L115"/>
       <c r="M115"/>
       <c r="N115"/>
       <c r="O115"/>
       <c r="P115"/>
-      <c r="Q115"/>
-      <c r="R115" t="s">
-        <v>29</v>
-      </c>
-      <c r="S115"/>
+      <c r="Q115" t="s">
+        <v>27</v>
+      </c>
+      <c r="R115"/>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B116" t="s">
-        <v>38</v>
+        <v>102</v>
       </c>
       <c r="C116" s="2" t="n">
         <v>41487</v>
       </c>
       <c r="D116" t="s">
-        <v>38</v>
+        <v>383</v>
       </c>
       <c r="E116" t="s">
-        <v>385</v>
-      </c>
-      <c r="F116" t="s">
-        <v>386</v>
-      </c>
+        <v>384</v>
+      </c>
+      <c r="F116"/>
       <c r="G116"/>
       <c r="H116"/>
-      <c r="I116"/>
+      <c r="I116" t="s">
+        <v>385</v>
+      </c>
       <c r="J116" t="s">
-        <v>387</v>
-      </c>
-      <c r="K116" t="s">
-        <v>388</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="K116"/>
       <c r="L116"/>
       <c r="M116"/>
       <c r="N116"/>
@@ -6105,36 +5924,33 @@
       <c r="P116"/>
       <c r="Q116"/>
       <c r="R116"/>
-      <c r="S116"/>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B117" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C117" s="2" t="n">
         <v>40422</v>
       </c>
       <c r="D117" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E117" t="s">
-        <v>52</v>
-      </c>
-      <c r="F117" t="s">
-        <v>390</v>
-      </c>
+        <v>388</v>
+      </c>
+      <c r="F117"/>
       <c r="G117"/>
       <c r="H117"/>
-      <c r="I117"/>
+      <c r="I117" t="s">
+        <v>142</v>
+      </c>
       <c r="J117" t="s">
-        <v>147</v>
-      </c>
-      <c r="K117" t="s">
-        <v>391</v>
-      </c>
+        <v>389</v>
+      </c>
+      <c r="K117"/>
       <c r="L117"/>
       <c r="M117"/>
       <c r="N117"/>
@@ -6142,218 +5958,200 @@
       <c r="P117"/>
       <c r="Q117"/>
       <c r="R117"/>
-      <c r="S117"/>
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B118" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C118" s="2" t="n">
         <v>43709</v>
       </c>
       <c r="D118" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E118" t="s">
-        <v>21</v>
-      </c>
-      <c r="F118" t="s">
-        <v>394</v>
-      </c>
+        <v>392</v>
+      </c>
+      <c r="F118"/>
       <c r="G118"/>
       <c r="H118"/>
-      <c r="I118"/>
-      <c r="J118" t="s">
-        <v>395</v>
-      </c>
+      <c r="I118" t="s">
+        <v>393</v>
+      </c>
+      <c r="J118"/>
       <c r="K118"/>
-      <c r="L118"/>
-      <c r="M118" t="s">
-        <v>396</v>
-      </c>
+      <c r="L118" t="s">
+        <v>394</v>
+      </c>
+      <c r="M118"/>
       <c r="N118"/>
       <c r="O118"/>
       <c r="P118"/>
       <c r="Q118"/>
       <c r="R118"/>
-      <c r="S118"/>
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B119" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C119" s="2" t="n">
         <v>44531</v>
       </c>
       <c r="D119" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E119" t="s">
-        <v>21</v>
-      </c>
-      <c r="F119" t="s">
-        <v>397</v>
-      </c>
+        <v>395</v>
+      </c>
+      <c r="F119"/>
       <c r="G119"/>
       <c r="H119"/>
-      <c r="I119"/>
-      <c r="J119" t="s">
-        <v>398</v>
-      </c>
+      <c r="I119" t="s">
+        <v>396</v>
+      </c>
+      <c r="J119"/>
       <c r="K119"/>
-      <c r="L119"/>
-      <c r="M119" t="s">
-        <v>399</v>
-      </c>
+      <c r="L119" t="s">
+        <v>397</v>
+      </c>
+      <c r="M119"/>
       <c r="N119"/>
       <c r="O119"/>
       <c r="P119"/>
       <c r="Q119"/>
       <c r="R119"/>
-      <c r="S119"/>
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B120" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C120" s="2" t="n">
         <v>43800</v>
       </c>
       <c r="D120" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E120" t="s">
-        <v>21</v>
-      </c>
-      <c r="F120" t="s">
-        <v>400</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="F120"/>
       <c r="G120"/>
       <c r="H120"/>
-      <c r="I120"/>
-      <c r="J120" t="s">
-        <v>401</v>
-      </c>
+      <c r="I120" t="s">
+        <v>399</v>
+      </c>
+      <c r="J120"/>
       <c r="K120"/>
-      <c r="L120"/>
-      <c r="M120" t="s">
-        <v>402</v>
-      </c>
+      <c r="L120" t="s">
+        <v>400</v>
+      </c>
+      <c r="M120"/>
       <c r="N120"/>
       <c r="O120"/>
       <c r="P120"/>
       <c r="Q120"/>
       <c r="R120"/>
-      <c r="S120"/>
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B121" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C121" s="2" t="n">
         <v>43800</v>
       </c>
       <c r="D121" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E121" t="s">
-        <v>21</v>
-      </c>
-      <c r="F121" t="s">
-        <v>403</v>
-      </c>
+        <v>401</v>
+      </c>
+      <c r="F121"/>
       <c r="G121"/>
       <c r="H121"/>
-      <c r="I121"/>
-      <c r="J121" t="s">
-        <v>404</v>
-      </c>
+      <c r="I121" t="s">
+        <v>402</v>
+      </c>
+      <c r="J121"/>
       <c r="K121"/>
-      <c r="L121"/>
-      <c r="M121" t="s">
-        <v>405</v>
-      </c>
+      <c r="L121" t="s">
+        <v>403</v>
+      </c>
+      <c r="M121"/>
       <c r="N121"/>
       <c r="O121"/>
       <c r="P121"/>
       <c r="Q121"/>
       <c r="R121"/>
-      <c r="S121"/>
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B122" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C122" s="2" t="n">
         <v>43739</v>
       </c>
       <c r="D122" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E122" t="s">
-        <v>21</v>
-      </c>
-      <c r="F122" t="s">
-        <v>407</v>
-      </c>
+        <v>405</v>
+      </c>
+      <c r="F122"/>
       <c r="G122"/>
       <c r="H122"/>
-      <c r="I122"/>
-      <c r="J122" t="s">
-        <v>408</v>
-      </c>
+      <c r="I122" t="s">
+        <v>406</v>
+      </c>
+      <c r="J122"/>
       <c r="K122"/>
-      <c r="L122"/>
-      <c r="M122" t="s">
-        <v>409</v>
-      </c>
+      <c r="L122" t="s">
+        <v>407</v>
+      </c>
+      <c r="M122"/>
       <c r="N122"/>
       <c r="O122"/>
       <c r="P122"/>
       <c r="Q122"/>
       <c r="R122"/>
-      <c r="S122"/>
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B123" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C123" s="2" t="n">
         <v>43252</v>
       </c>
       <c r="D123" t="s">
-        <v>57</v>
+        <v>408</v>
       </c>
       <c r="E123" t="s">
-        <v>410</v>
-      </c>
-      <c r="F123" t="s">
-        <v>411</v>
-      </c>
+        <v>409</v>
+      </c>
+      <c r="F123"/>
       <c r="G123"/>
       <c r="H123"/>
-      <c r="I123"/>
-      <c r="J123" t="s">
-        <v>412</v>
-      </c>
+      <c r="I123" t="s">
+        <v>410</v>
+      </c>
+      <c r="J123"/>
       <c r="K123"/>
       <c r="L123"/>
       <c r="M123"/>
@@ -6362,63 +6160,59 @@
       <c r="P123"/>
       <c r="Q123"/>
       <c r="R123"/>
-      <c r="S123"/>
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B124" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="C124" s="2" t="n">
         <v>43647</v>
       </c>
       <c r="D124" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E124" t="s">
-        <v>21</v>
-      </c>
-      <c r="F124" t="s">
-        <v>413</v>
-      </c>
+        <v>411</v>
+      </c>
+      <c r="F124"/>
       <c r="G124"/>
       <c r="H124"/>
-      <c r="I124"/>
-      <c r="J124" t="s">
-        <v>414</v>
-      </c>
+      <c r="I124" t="s">
+        <v>412</v>
+      </c>
+      <c r="J124"/>
       <c r="K124"/>
-      <c r="L124"/>
-      <c r="M124" t="s">
-        <v>415</v>
-      </c>
+      <c r="L124" t="s">
+        <v>413</v>
+      </c>
+      <c r="M124"/>
       <c r="N124"/>
       <c r="O124"/>
       <c r="P124"/>
       <c r="Q124"/>
       <c r="R124"/>
-      <c r="S124"/>
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B125"/>
       <c r="C125" s="2"/>
       <c r="D125"/>
-      <c r="E125"/>
-      <c r="F125" t="s">
-        <v>417</v>
-      </c>
+      <c r="E125" t="s">
+        <v>415</v>
+      </c>
+      <c r="F125"/>
       <c r="G125"/>
       <c r="H125"/>
       <c r="I125"/>
-      <c r="J125"/>
-      <c r="K125" t="s">
-        <v>418</v>
-      </c>
+      <c r="J125" t="s">
+        <v>416</v>
+      </c>
+      <c r="K125"/>
       <c r="L125"/>
       <c r="M125"/>
       <c r="N125"/>
@@ -6426,26 +6220,25 @@
       <c r="P125"/>
       <c r="Q125"/>
       <c r="R125"/>
-      <c r="S125"/>
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B126"/>
       <c r="C126" s="2"/>
       <c r="D126"/>
-      <c r="E126"/>
-      <c r="F126" t="s">
-        <v>419</v>
-      </c>
+      <c r="E126" t="s">
+        <v>417</v>
+      </c>
+      <c r="F126"/>
       <c r="G126"/>
       <c r="H126"/>
       <c r="I126"/>
-      <c r="J126"/>
-      <c r="K126" t="s">
-        <v>420</v>
-      </c>
+      <c r="J126" t="s">
+        <v>418</v>
+      </c>
+      <c r="K126"/>
       <c r="L126"/>
       <c r="M126"/>
       <c r="N126"/>
@@ -6453,26 +6246,25 @@
       <c r="P126"/>
       <c r="Q126"/>
       <c r="R126"/>
-      <c r="S126"/>
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B127"/>
       <c r="C127" s="2"/>
       <c r="D127"/>
-      <c r="E127"/>
-      <c r="F127" t="s">
-        <v>421</v>
-      </c>
+      <c r="E127" t="s">
+        <v>419</v>
+      </c>
+      <c r="F127"/>
       <c r="G127"/>
       <c r="H127"/>
       <c r="I127"/>
-      <c r="J127"/>
-      <c r="K127" t="s">
-        <v>422</v>
-      </c>
+      <c r="J127" t="s">
+        <v>420</v>
+      </c>
+      <c r="K127"/>
       <c r="L127"/>
       <c r="M127"/>
       <c r="N127"/>
@@ -6480,26 +6272,25 @@
       <c r="P127"/>
       <c r="Q127"/>
       <c r="R127"/>
-      <c r="S127"/>
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B128"/>
       <c r="C128" s="2"/>
       <c r="D128"/>
-      <c r="E128"/>
-      <c r="F128" t="s">
-        <v>423</v>
-      </c>
+      <c r="E128" t="s">
+        <v>421</v>
+      </c>
+      <c r="F128"/>
       <c r="G128"/>
       <c r="H128"/>
       <c r="I128"/>
-      <c r="J128"/>
-      <c r="K128" t="s">
-        <v>424</v>
-      </c>
+      <c r="J128" t="s">
+        <v>422</v>
+      </c>
+      <c r="K128"/>
       <c r="L128"/>
       <c r="M128"/>
       <c r="N128"/>
@@ -6507,26 +6298,25 @@
       <c r="P128"/>
       <c r="Q128"/>
       <c r="R128"/>
-      <c r="S128"/>
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B129"/>
       <c r="C129" s="2"/>
       <c r="D129"/>
-      <c r="E129"/>
-      <c r="F129" t="s">
-        <v>425</v>
-      </c>
+      <c r="E129" t="s">
+        <v>423</v>
+      </c>
+      <c r="F129"/>
       <c r="G129"/>
       <c r="H129"/>
       <c r="I129"/>
-      <c r="J129"/>
-      <c r="K129" t="s">
-        <v>246</v>
-      </c>
+      <c r="J129" t="s">
+        <v>242</v>
+      </c>
+      <c r="K129"/>
       <c r="L129"/>
       <c r="M129"/>
       <c r="N129"/>
@@ -6534,26 +6324,25 @@
       <c r="P129"/>
       <c r="Q129"/>
       <c r="R129"/>
-      <c r="S129"/>
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B130"/>
       <c r="C130" s="2"/>
       <c r="D130"/>
-      <c r="E130"/>
-      <c r="F130" t="s">
-        <v>426</v>
-      </c>
+      <c r="E130" t="s">
+        <v>424</v>
+      </c>
+      <c r="F130"/>
       <c r="G130"/>
       <c r="H130"/>
       <c r="I130"/>
-      <c r="J130"/>
-      <c r="K130" t="s">
-        <v>427</v>
-      </c>
+      <c r="J130" t="s">
+        <v>425</v>
+      </c>
+      <c r="K130"/>
       <c r="L130"/>
       <c r="M130"/>
       <c r="N130"/>
@@ -6561,7 +6350,6 @@
       <c r="P130"/>
       <c r="Q130"/>
       <c r="R130"/>
-      <c r="S130"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6582,7 +6370,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -6591,30 +6379,30 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>429</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>430</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>431</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C2" t="n">
         <v>2022</v>
@@ -6623,28 +6411,28 @@
         <v>44714</v>
       </c>
       <c r="E2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="F2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="H2"/>
       <c r="I2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="J2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B3" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="C3" t="n">
         <v>2022</v>
@@ -6653,26 +6441,26 @@
         <v>44718</v>
       </c>
       <c r="E3" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="F3" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="G3" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="H3"/>
       <c r="I3" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="J3"/>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B4" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="C4" t="n">
         <v>2022</v>
@@ -6681,26 +6469,26 @@
         <v>44682</v>
       </c>
       <c r="E4" t="s">
+        <v>444</v>
+      </c>
+      <c r="F4" t="s">
+        <v>445</v>
+      </c>
+      <c r="G4" t="s">
         <v>446</v>
-      </c>
-      <c r="F4" t="s">
-        <v>447</v>
-      </c>
-      <c r="G4" t="s">
-        <v>448</v>
       </c>
       <c r="H4"/>
       <c r="I4" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="J4"/>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B5" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C5" t="n">
         <v>2021</v>
@@ -6709,28 +6497,28 @@
         <v>44551</v>
       </c>
       <c r="E5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="F5" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G5" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="H5"/>
       <c r="I5" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="J5" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B6" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="C6" t="n">
         <v>2021</v>
@@ -6739,26 +6527,26 @@
         <v>44378</v>
       </c>
       <c r="E6" t="s">
+        <v>454</v>
+      </c>
+      <c r="F6" t="s">
+        <v>455</v>
+      </c>
+      <c r="G6" t="s">
         <v>456</v>
-      </c>
-      <c r="F6" t="s">
-        <v>457</v>
-      </c>
-      <c r="G6" t="s">
-        <v>458</v>
       </c>
       <c r="H6"/>
       <c r="I6" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="J6"/>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B7" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C7" t="n">
         <v>2021</v>
@@ -6767,28 +6555,28 @@
         <v>44260</v>
       </c>
       <c r="E7" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G7" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="H7"/>
       <c r="I7" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B8" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C8" t="n">
         <v>2021</v>
@@ -6797,28 +6585,28 @@
         <v>44260</v>
       </c>
       <c r="E8" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="F8" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G8" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="H8"/>
       <c r="I8" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="J8" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B9" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="C9" t="n">
         <v>2021</v>
@@ -6827,26 +6615,26 @@
         <v>44324</v>
       </c>
       <c r="E9" t="s">
+        <v>468</v>
+      </c>
+      <c r="F9" t="s">
+        <v>469</v>
+      </c>
+      <c r="G9" t="s">
         <v>470</v>
-      </c>
-      <c r="F9" t="s">
-        <v>471</v>
-      </c>
-      <c r="G9" t="s">
-        <v>472</v>
       </c>
       <c r="H9"/>
       <c r="I9" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="J9"/>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B10" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="C10" t="n">
         <v>2020</v>
@@ -6855,28 +6643,28 @@
         <v>44018</v>
       </c>
       <c r="E10" t="s">
+        <v>473</v>
+      </c>
+      <c r="F10" t="s">
+        <v>474</v>
+      </c>
+      <c r="G10" t="s">
         <v>475</v>
-      </c>
-      <c r="F10" t="s">
-        <v>476</v>
-      </c>
-      <c r="G10" t="s">
-        <v>477</v>
       </c>
       <c r="H10"/>
       <c r="I10" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="J10" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B11" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="C11" t="n">
         <v>2020</v>
@@ -6885,28 +6673,28 @@
         <v>43947</v>
       </c>
       <c r="E11" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="F11" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G11" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="H11"/>
       <c r="I11" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="J11" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B12" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C12" t="n">
         <v>2020</v>
@@ -6915,28 +6703,28 @@
         <v>43946</v>
       </c>
       <c r="E12" t="s">
+        <v>483</v>
+      </c>
+      <c r="F12" t="s">
+        <v>484</v>
+      </c>
+      <c r="G12" t="s">
         <v>485</v>
-      </c>
-      <c r="F12" t="s">
-        <v>486</v>
-      </c>
-      <c r="G12" t="s">
-        <v>487</v>
       </c>
       <c r="H12"/>
       <c r="I12" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="J12" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B13" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C13" t="n">
         <v>2020</v>
@@ -6945,26 +6733,26 @@
         <v>43945</v>
       </c>
       <c r="E13" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="F13" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G13" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="H13"/>
       <c r="I13" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="J13"/>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B14" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="C14" t="n">
         <v>2021</v>
@@ -6973,26 +6761,26 @@
         <v>44197</v>
       </c>
       <c r="E14" t="s">
+        <v>495</v>
+      </c>
+      <c r="F14" t="s">
+        <v>496</v>
+      </c>
+      <c r="G14" t="s">
         <v>497</v>
-      </c>
-      <c r="F14" t="s">
-        <v>498</v>
-      </c>
-      <c r="G14" t="s">
-        <v>499</v>
       </c>
       <c r="H14"/>
       <c r="I14" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J14"/>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B15" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="C15" t="n">
         <v>2020</v>
@@ -7001,26 +6789,26 @@
         <v>43862</v>
       </c>
       <c r="E15" t="s">
+        <v>500</v>
+      </c>
+      <c r="F15" t="s">
+        <v>501</v>
+      </c>
+      <c r="G15" t="s">
         <v>502</v>
-      </c>
-      <c r="F15" t="s">
-        <v>503</v>
-      </c>
-      <c r="G15" t="s">
-        <v>504</v>
       </c>
       <c r="H15"/>
       <c r="I15" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="J15"/>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B16" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="C16" t="n">
         <v>2019</v>
@@ -7029,30 +6817,30 @@
         <v>43592</v>
       </c>
       <c r="E16" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F16" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G16" t="s">
+        <v>505</v>
+      </c>
+      <c r="H16" t="s">
+        <v>506</v>
+      </c>
+      <c r="I16" t="s">
         <v>507</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J16" t="s">
         <v>508</v>
-      </c>
-      <c r="I16" t="s">
-        <v>509</v>
-      </c>
-      <c r="J16" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B17" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C17" t="n">
         <v>2019</v>
@@ -7061,26 +6849,26 @@
         <v>43589</v>
       </c>
       <c r="E17" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F17" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="G17" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="H17"/>
       <c r="I17" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="J17"/>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B18" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C18" t="n">
         <v>2018</v>
@@ -7089,30 +6877,30 @@
         <v>43247</v>
       </c>
       <c r="E18" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="F18" t="s">
+        <v>513</v>
+      </c>
+      <c r="G18" t="s">
+        <v>514</v>
+      </c>
+      <c r="H18" t="s">
         <v>515</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
         <v>516</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
         <v>517</v>
-      </c>
-      <c r="I18" t="s">
-        <v>518</v>
-      </c>
-      <c r="J18" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B19" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C19" t="n">
         <v>2018</v>
@@ -7121,28 +6909,28 @@
         <v>43215</v>
       </c>
       <c r="E19" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="F19" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G19" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="H19"/>
       <c r="I19" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="J19" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B20" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C20" t="n">
         <v>2018</v>
@@ -7151,26 +6939,26 @@
         <v>43214</v>
       </c>
       <c r="E20" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F20" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G20" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="H20"/>
       <c r="I20" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="J20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B21" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C21" t="n">
         <v>2018</v>
@@ -7179,26 +6967,26 @@
         <v>43212</v>
       </c>
       <c r="E21" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="F21" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G21" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="H21"/>
       <c r="I21" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="J21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B22" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="C22" t="n">
         <v>2018</v>
@@ -7207,26 +6995,26 @@
         <v>43159</v>
       </c>
       <c r="E22" t="s">
+        <v>530</v>
+      </c>
+      <c r="F22" t="s">
+        <v>531</v>
+      </c>
+      <c r="G22" t="s">
         <v>532</v>
-      </c>
-      <c r="F22" t="s">
-        <v>533</v>
-      </c>
-      <c r="G22" t="s">
-        <v>534</v>
       </c>
       <c r="H22"/>
       <c r="I22" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B23" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C23" t="n">
         <v>2017</v>
@@ -7235,26 +7023,26 @@
         <v>42942</v>
       </c>
       <c r="E23" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F23" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G23" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="H23"/>
       <c r="I23" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="J23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B24" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="C24" t="n">
         <v>2017</v>
@@ -7263,26 +7051,26 @@
         <v>42864</v>
       </c>
       <c r="E24" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="F24" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="G24" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="H24"/>
       <c r="I24" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="J24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B25" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C25" t="n">
         <v>2017</v>
@@ -7291,26 +7079,26 @@
         <v>42862</v>
       </c>
       <c r="E25" t="s">
+        <v>541</v>
+      </c>
+      <c r="F25" t="s">
+        <v>542</v>
+      </c>
+      <c r="G25" t="s">
         <v>543</v>
-      </c>
-      <c r="F25" t="s">
-        <v>544</v>
-      </c>
-      <c r="G25" t="s">
-        <v>545</v>
       </c>
       <c r="H25"/>
       <c r="I25" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="J25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B26" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="C26" t="n">
         <v>2016</v>
@@ -7319,26 +7107,26 @@
         <v>42705</v>
       </c>
       <c r="E26" t="s">
+        <v>546</v>
+      </c>
+      <c r="F26" t="s">
+        <v>547</v>
+      </c>
+      <c r="G26" t="s">
         <v>548</v>
-      </c>
-      <c r="F26" t="s">
-        <v>549</v>
-      </c>
-      <c r="G26" t="s">
-        <v>550</v>
       </c>
       <c r="H26"/>
       <c r="I26" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="J26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B27" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="C27" t="n">
         <v>2016</v>
@@ -7347,17 +7135,17 @@
         <v>42401</v>
       </c>
       <c r="E27" t="s">
+        <v>550</v>
+      </c>
+      <c r="F27" t="s">
+        <v>551</v>
+      </c>
+      <c r="G27" t="s">
         <v>552</v>
-      </c>
-      <c r="F27" t="s">
-        <v>553</v>
-      </c>
-      <c r="G27" t="s">
-        <v>554</v>
       </c>
       <c r="H27"/>
       <c r="I27" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="J27"/>
     </row>
